--- a/data/league_data/france/19/france_shot_creation.xlsx
+++ b/data/league_data/france/19/france_shot_creation.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sanjitvarma/Desktop/trial_git/Predicting-Football-Player-Transfer-Values/data/league_data/france/19/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FBB60754-79A8-AE49-BDF3-D47CA7C89DB7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{112C52DB-0B1E-3940-8C73-C9FBBF7B4890}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14720"/>
+    <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -388,9 +388,6 @@
     <t>Thomas Foket</t>
   </si>
   <si>
-    <t>Marcelo</t>
-  </si>
-  <si>
     <t>Damien Da Silva</t>
   </si>
   <si>
@@ -1832,12 +1829,15 @@
   </si>
   <si>
     <t>Anthony Walongwa</t>
+  </si>
+  <si>
+    <t>Marcelo Filho</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -2692,14 +2692,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X501"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:X500"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Z2" sqref="Z2"/>
+    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="B59" sqref="B59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.33203125" bestFit="1" customWidth="1"/>
@@ -2727,7 +2727,7 @@
     <col min="24" max="24" width="3.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -2801,7 +2801,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -2875,7 +2875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -2949,7 +2949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -3023,7 +3023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -3097,7 +3097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -3171,7 +3171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -3245,7 +3245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -3319,7 +3319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -3393,7 +3393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -3467,7 +3467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -3541,7 +3541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -3615,7 +3615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -3689,7 +3689,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -3763,7 +3763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -3837,7 +3837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -3911,7 +3911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -3985,7 +3985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -4059,7 +4059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -4133,7 +4133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -4207,7 +4207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -4281,7 +4281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -4355,7 +4355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -4429,7 +4429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -4503,7 +4503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -4577,7 +4577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -4651,7 +4651,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -4725,7 +4725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -4799,7 +4799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -4873,7 +4873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -4947,7 +4947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -5021,7 +5021,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -5095,7 +5095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -5169,7 +5169,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -5243,7 +5243,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -5317,7 +5317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -5391,7 +5391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -5465,7 +5465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -5539,7 +5539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -5613,7 +5613,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -5687,7 +5687,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -5761,7 +5761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -5835,7 +5835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -5909,7 +5909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -5983,7 +5983,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -6057,7 +6057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -6131,7 +6131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -6205,7 +6205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -6279,7 +6279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -6353,7 +6353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -6427,7 +6427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -6501,7 +6501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -6575,7 +6575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -6649,7 +6649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -6723,7 +6723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -6797,7 +6797,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -6871,7 +6871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>56</v>
       </c>
@@ -6945,7 +6945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -7019,12 +7019,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>58</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>122</v>
+        <v>603</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>62</v>
@@ -7093,12 +7093,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>59</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>23</v>
@@ -7167,12 +7167,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>60</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>62</v>
@@ -7241,12 +7241,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>61</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>23</v>
@@ -7315,12 +7315,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>62</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>78</v>
@@ -7389,12 +7389,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>63</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>23</v>
@@ -7463,12 +7463,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>64</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>23</v>
@@ -7537,12 +7537,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>65</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>23</v>
@@ -7611,15 +7611,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>66</v>
       </c>
       <c r="B67" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C67" s="2" t="s">
         <v>130</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>131</v>
       </c>
       <c r="D67" s="2" t="s">
         <v>75</v>
@@ -7685,15 +7685,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>67</v>
       </c>
       <c r="B68" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C68" s="2" t="s">
         <v>132</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>133</v>
       </c>
       <c r="D68" s="2" t="s">
         <v>20</v>
@@ -7759,12 +7759,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>68</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>23</v>
@@ -7833,12 +7833,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>69</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>23</v>
@@ -7907,12 +7907,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>70</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>31</v>
@@ -7981,12 +7981,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>71</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>43</v>
@@ -8055,15 +8055,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>72</v>
       </c>
       <c r="B73" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C73" s="2" t="s">
         <v>138</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>139</v>
       </c>
       <c r="D73" s="2" t="s">
         <v>20</v>
@@ -8129,12 +8129,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>73</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>23</v>
@@ -8203,15 +8203,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>74</v>
       </c>
       <c r="B75" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C75" s="2" t="s">
         <v>141</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>142</v>
       </c>
       <c r="D75" s="2" t="s">
         <v>47</v>
@@ -8277,12 +8277,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>75</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>23</v>
@@ -8291,7 +8291,7 @@
         <v>24</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F76" s="2">
         <v>33</v>
@@ -8351,12 +8351,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>76</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>71</v>
@@ -8365,7 +8365,7 @@
         <v>47</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F77" s="2">
         <v>24</v>
@@ -8425,12 +8425,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>77</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>23</v>
@@ -8499,12 +8499,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>78</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>23</v>
@@ -8573,12 +8573,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>79</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>62</v>
@@ -8587,7 +8587,7 @@
         <v>83</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F80" s="2">
         <v>24</v>
@@ -8647,12 +8647,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>80</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>23</v>
@@ -8721,12 +8721,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>81</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>78</v>
@@ -8795,12 +8795,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>82</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>23</v>
@@ -8869,12 +8869,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>83</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>59</v>
@@ -8943,12 +8943,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>84</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>23</v>
@@ -9017,12 +9017,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="86" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>85</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>23</v>
@@ -9091,15 +9091,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>86</v>
       </c>
       <c r="B87" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C87" s="2" t="s">
         <v>156</v>
-      </c>
-      <c r="C87" s="2" t="s">
-        <v>157</v>
       </c>
       <c r="D87" s="2" t="s">
         <v>47</v>
@@ -9165,12 +9165,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>87</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>46</v>
@@ -9239,12 +9239,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>88</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>23</v>
@@ -9313,12 +9313,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <v>89</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>23</v>
@@ -9387,12 +9387,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <v>90</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>23</v>
@@ -9401,7 +9401,7 @@
         <v>47</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F91" s="2">
         <v>25</v>
@@ -9461,12 +9461,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
         <v>91</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>46</v>
@@ -9535,12 +9535,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
         <v>92</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>23</v>
@@ -9609,15 +9609,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
         <v>93</v>
       </c>
       <c r="B94" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C94" s="2" t="s">
         <v>164</v>
-      </c>
-      <c r="C94" s="2" t="s">
-        <v>165</v>
       </c>
       <c r="D94" s="2" t="s">
         <v>47</v>
@@ -9683,12 +9683,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
         <v>94</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>23</v>
@@ -9757,15 +9757,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
         <v>95</v>
       </c>
       <c r="B96" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C96" s="2" t="s">
         <v>167</v>
-      </c>
-      <c r="C96" s="2" t="s">
-        <v>168</v>
       </c>
       <c r="D96" s="2" t="s">
         <v>75</v>
@@ -9831,12 +9831,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
         <v>96</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>23</v>
@@ -9905,12 +9905,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
         <v>97</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>23</v>
@@ -9979,12 +9979,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
         <v>98</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>23</v>
@@ -10053,12 +10053,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
         <v>99</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>23</v>
@@ -10127,12 +10127,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
         <v>100</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>23</v>
@@ -10201,12 +10201,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
         <v>101</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>23</v>
@@ -10275,12 +10275,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
         <v>102</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>23</v>
@@ -10349,18 +10349,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
         <v>103</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>62</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E104" s="2" t="s">
         <v>66</v>
@@ -10423,15 +10423,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
         <v>104</v>
       </c>
       <c r="B105" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C105" s="2" t="s">
         <v>178</v>
-      </c>
-      <c r="C105" s="2" t="s">
-        <v>179</v>
       </c>
       <c r="D105" s="2" t="s">
         <v>20</v>
@@ -10497,12 +10497,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
         <v>105</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>31</v>
@@ -10571,12 +10571,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
         <v>106</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>23</v>
@@ -10645,12 +10645,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
         <v>107</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>111</v>
@@ -10719,12 +10719,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
         <v>108</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>69</v>
@@ -10793,15 +10793,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
         <v>109</v>
       </c>
       <c r="B110" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C110" s="2" t="s">
         <v>184</v>
-      </c>
-      <c r="C110" s="2" t="s">
-        <v>185</v>
       </c>
       <c r="D110" s="2" t="s">
         <v>20</v>
@@ -10867,15 +10867,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
         <v>110</v>
       </c>
       <c r="B111" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C111" s="2" t="s">
         <v>186</v>
-      </c>
-      <c r="C111" s="2" t="s">
-        <v>187</v>
       </c>
       <c r="D111" s="2" t="s">
         <v>47</v>
@@ -10941,12 +10941,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
         <v>111</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>46</v>
@@ -11015,21 +11015,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
         <v>112</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>62</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F113" s="2">
         <v>31</v>
@@ -11089,12 +11089,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
         <v>113</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>111</v>
@@ -11163,12 +11163,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
         <v>114</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>23</v>
@@ -11237,12 +11237,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
         <v>115</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>23</v>
@@ -11251,7 +11251,7 @@
         <v>20</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F116" s="2">
         <v>18</v>
@@ -11311,12 +11311,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
         <v>116</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>23</v>
@@ -11325,7 +11325,7 @@
         <v>50</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F117" s="2">
         <v>23</v>
@@ -11385,12 +11385,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
         <v>117</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>23</v>
@@ -11459,15 +11459,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
         <v>118</v>
       </c>
       <c r="B119" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C119" s="2" t="s">
         <v>196</v>
-      </c>
-      <c r="C119" s="2" t="s">
-        <v>197</v>
       </c>
       <c r="D119" s="2" t="s">
         <v>24</v>
@@ -11533,12 +11533,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
         <v>119</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>23</v>
@@ -11607,12 +11607,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
         <v>120</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>23</v>
@@ -11681,21 +11681,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
         <v>121</v>
       </c>
       <c r="B122" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="C122" s="2" t="s">
         <v>200</v>
-      </c>
-      <c r="C122" s="2" t="s">
-        <v>201</v>
       </c>
       <c r="D122" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F122" s="2">
         <v>28</v>
@@ -11755,12 +11755,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
         <v>122</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>23</v>
@@ -11829,12 +11829,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A124" s="1">
         <v>123</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>23</v>
@@ -11843,7 +11843,7 @@
         <v>75</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F124" s="2">
         <v>19</v>
@@ -11903,12 +11903,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
         <v>124</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>33</v>
@@ -11977,12 +11977,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
         <v>125</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>31</v>
@@ -12051,12 +12051,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A127" s="1">
         <v>126</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>71</v>
@@ -12065,7 +12065,7 @@
         <v>47</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F127" s="2">
         <v>30</v>
@@ -12125,12 +12125,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A128" s="1">
         <v>127</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>23</v>
@@ -12199,15 +12199,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A129" s="1">
         <v>128</v>
       </c>
       <c r="B129" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="C129" s="2" t="s">
         <v>208</v>
-      </c>
-      <c r="C129" s="2" t="s">
-        <v>209</v>
       </c>
       <c r="D129" s="2" t="s">
         <v>95</v>
@@ -12273,12 +12273,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A130" s="1">
         <v>129</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>78</v>
@@ -12347,12 +12347,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A131" s="1">
         <v>130</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>74</v>
@@ -12421,12 +12421,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A132" s="1">
         <v>131</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>23</v>
@@ -12495,12 +12495,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A133" s="1">
         <v>132</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>59</v>
@@ -12569,15 +12569,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A134" s="1">
         <v>133</v>
       </c>
       <c r="B134" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C134" s="2" t="s">
         <v>214</v>
-      </c>
-      <c r="C134" s="2" t="s">
-        <v>215</v>
       </c>
       <c r="D134" s="2" t="s">
         <v>24</v>
@@ -12643,15 +12643,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A135" s="1">
         <v>134</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D135" s="2" t="s">
         <v>75</v>
@@ -12717,12 +12717,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A136" s="1">
         <v>135</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>23</v>
@@ -12791,12 +12791,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A137" s="1">
         <v>136</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>23</v>
@@ -12865,21 +12865,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A138" s="1">
         <v>137</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F138" s="2">
         <v>26</v>
@@ -12939,12 +12939,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A139" s="1">
         <v>138</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>62</v>
@@ -13013,12 +13013,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A140" s="1">
         <v>139</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>23</v>
@@ -13027,7 +13027,7 @@
         <v>20</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F140" s="2">
         <v>24</v>
@@ -13087,15 +13087,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A141" s="1">
         <v>140</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D141" s="2" t="s">
         <v>47</v>
@@ -13161,12 +13161,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A142" s="1">
         <v>141</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>23</v>
@@ -13175,7 +13175,7 @@
         <v>50</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F142" s="2">
         <v>20</v>
@@ -13235,12 +13235,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A143" s="1">
         <v>142</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>23</v>
@@ -13249,7 +13249,7 @@
         <v>75</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F143" s="2">
         <v>28</v>
@@ -13309,12 +13309,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A144" s="1">
         <v>143</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>23</v>
@@ -13383,12 +13383,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A145" s="1">
         <v>144</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>74</v>
@@ -13457,12 +13457,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A146" s="1">
         <v>145</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>23</v>
@@ -13531,12 +13531,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A147" s="1">
         <v>146</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>46</v>
@@ -13605,12 +13605,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A148" s="1">
         <v>147</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>89</v>
@@ -13679,12 +13679,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A149" s="1">
         <v>148</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>23</v>
@@ -13753,12 +13753,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A150" s="1">
         <v>149</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>111</v>
@@ -13827,15 +13827,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A151" s="1">
         <v>150</v>
       </c>
       <c r="B151" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="C151" s="2" t="s">
         <v>232</v>
-      </c>
-      <c r="C151" s="2" t="s">
-        <v>233</v>
       </c>
       <c r="D151" s="2" t="s">
         <v>75</v>
@@ -13901,12 +13901,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A152" s="1">
         <v>151</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>23</v>
@@ -13975,12 +13975,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A153" s="1">
         <v>152</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>23</v>
@@ -14049,12 +14049,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A154" s="1">
         <v>153</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>23</v>
@@ -14123,12 +14123,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A155" s="1">
         <v>154</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>23</v>
@@ -14197,12 +14197,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A156" s="1">
         <v>155</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>62</v>
@@ -14211,7 +14211,7 @@
         <v>20</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F156" s="2">
         <v>33</v>
@@ -14271,15 +14271,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A157" s="1">
         <v>156</v>
       </c>
       <c r="B157" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="C157" s="2" t="s">
         <v>239</v>
-      </c>
-      <c r="C157" s="2" t="s">
-        <v>240</v>
       </c>
       <c r="D157" s="2" t="s">
         <v>24</v>
@@ -14345,12 +14345,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A158" s="1">
         <v>157</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>23</v>
@@ -14419,15 +14419,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A159" s="1">
         <v>158</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D159" s="2" t="s">
         <v>75</v>
@@ -14493,21 +14493,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A160" s="1">
         <v>159</v>
       </c>
       <c r="B160" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C160" s="2" t="s">
         <v>243</v>
-      </c>
-      <c r="C160" s="2" t="s">
-        <v>244</v>
       </c>
       <c r="D160" s="2" t="s">
         <v>95</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F160" s="2">
         <v>24</v>
@@ -14567,12 +14567,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A161" s="1">
         <v>160</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>23</v>
@@ -14641,12 +14641,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A162" s="1">
         <v>161</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>23</v>
@@ -14715,12 +14715,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A163" s="1">
         <v>162</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>23</v>
@@ -14789,12 +14789,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A164" s="1">
         <v>163</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C164" s="2" t="s">
         <v>74</v>
@@ -14863,12 +14863,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A165" s="1">
         <v>164</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C165" s="2" t="s">
         <v>23</v>
@@ -14937,12 +14937,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A166" s="1">
         <v>165</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>23</v>
@@ -15011,12 +15011,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A167" s="1">
         <v>166</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C167" s="2" t="s">
         <v>23</v>
@@ -15025,7 +15025,7 @@
         <v>20</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F167" s="2">
         <v>22</v>
@@ -15085,15 +15085,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A168" s="1">
         <v>167</v>
       </c>
       <c r="B168" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="C168" s="2" t="s">
         <v>252</v>
-      </c>
-      <c r="C168" s="2" t="s">
-        <v>253</v>
       </c>
       <c r="D168" s="2" t="s">
         <v>20</v>
@@ -15159,15 +15159,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A169" s="1">
         <v>168</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D169" s="2" t="s">
         <v>83</v>
@@ -15233,12 +15233,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A170" s="1">
         <v>169</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C170" s="2" t="s">
         <v>23</v>
@@ -15307,12 +15307,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A171" s="1">
         <v>170</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C171" s="2" t="s">
         <v>23</v>
@@ -15381,15 +15381,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A172" s="1">
         <v>171</v>
       </c>
       <c r="B172" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="C172" s="2" t="s">
         <v>257</v>
-      </c>
-      <c r="C172" s="2" t="s">
-        <v>258</v>
       </c>
       <c r="D172" s="2" t="s">
         <v>20</v>
@@ -15455,12 +15455,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A173" s="1">
         <v>172</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C173" s="2" t="s">
         <v>71</v>
@@ -15529,12 +15529,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A174" s="1">
         <v>173</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C174" s="2" t="s">
         <v>23</v>
@@ -15603,21 +15603,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A175" s="1">
         <v>174</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D175" s="2" t="s">
         <v>50</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F175" s="2">
         <v>28</v>
@@ -15677,15 +15677,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A176" s="1">
         <v>175</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D176" s="2" t="s">
         <v>20</v>
@@ -15751,12 +15751,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A177" s="1">
         <v>176</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C177" s="2" t="s">
         <v>62</v>
@@ -15825,15 +15825,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A178" s="1">
         <v>177</v>
       </c>
       <c r="B178" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="C178" s="2" t="s">
         <v>264</v>
-      </c>
-      <c r="C178" s="2" t="s">
-        <v>265</v>
       </c>
       <c r="D178" s="2" t="s">
         <v>50</v>
@@ -15899,12 +15899,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A179" s="1">
         <v>178</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C179" s="2" t="s">
         <v>23</v>
@@ -15913,7 +15913,7 @@
         <v>95</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F179" s="2">
         <v>31</v>
@@ -15973,12 +15973,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A180" s="1">
         <v>179</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C180" s="2" t="s">
         <v>31</v>
@@ -16047,12 +16047,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A181" s="1">
         <v>180</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C181" s="2" t="s">
         <v>23</v>
@@ -16121,12 +16121,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A182" s="1">
         <v>181</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C182" s="2" t="s">
         <v>105</v>
@@ -16195,21 +16195,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A183" s="1">
         <v>182</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D183" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F183" s="2">
         <v>21</v>
@@ -16269,12 +16269,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A184" s="1">
         <v>183</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C184" s="2" t="s">
         <v>23</v>
@@ -16283,7 +16283,7 @@
         <v>24</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F184" s="2">
         <v>25</v>
@@ -16343,12 +16343,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A185" s="1">
         <v>184</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C185" s="2" t="s">
         <v>23</v>
@@ -16417,15 +16417,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A186" s="1">
         <v>185</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D186" s="2" t="s">
         <v>47</v>
@@ -16491,21 +16491,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A187" s="1">
         <v>186</v>
       </c>
       <c r="B187" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="C187" s="2" t="s">
         <v>274</v>
-      </c>
-      <c r="C187" s="2" t="s">
-        <v>275</v>
       </c>
       <c r="D187" s="2" t="s">
         <v>50</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F187" s="2">
         <v>25</v>
@@ -16565,12 +16565,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A188" s="1">
         <v>187</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C188" s="2" t="s">
         <v>23</v>
@@ -16639,12 +16639,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A189" s="1">
         <v>188</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C189" s="2" t="s">
         <v>31</v>
@@ -16713,12 +16713,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A190" s="1">
         <v>189</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C190" s="2" t="s">
         <v>23</v>
@@ -16787,18 +16787,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A191" s="1">
         <v>190</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C191" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E191" s="2" t="s">
         <v>52</v>
@@ -16861,12 +16861,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A192" s="1">
         <v>191</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C192" s="2" t="s">
         <v>19</v>
@@ -16935,15 +16935,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A193" s="1">
         <v>192</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D193" s="2" t="s">
         <v>50</v>
@@ -17009,12 +17009,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A194" s="1">
         <v>193</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C194" s="2" t="s">
         <v>59</v>
@@ -17083,21 +17083,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A195" s="1">
         <v>194</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D195" s="2" t="s">
         <v>83</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F195" s="2">
         <v>25</v>
@@ -17157,12 +17157,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A196" s="1">
         <v>195</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C196" s="2" t="s">
         <v>23</v>
@@ -17231,15 +17231,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A197" s="1">
         <v>196</v>
       </c>
       <c r="B197" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="C197" s="2" t="s">
         <v>285</v>
-      </c>
-      <c r="C197" s="2" t="s">
-        <v>286</v>
       </c>
       <c r="D197" s="2" t="s">
         <v>47</v>
@@ -17305,15 +17305,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A198" s="1">
         <v>197</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D198" s="2" t="s">
         <v>83</v>
@@ -17379,12 +17379,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A199" s="1">
         <v>198</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C199" s="2" t="s">
         <v>46</v>
@@ -17453,12 +17453,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A200" s="1">
         <v>199</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C200" s="2" t="s">
         <v>23</v>
@@ -17527,12 +17527,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A201" s="1">
         <v>200</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C201" s="2" t="s">
         <v>23</v>
@@ -17601,12 +17601,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A202" s="1">
         <v>201</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C202" s="2" t="s">
         <v>23</v>
@@ -17675,18 +17675,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A203" s="1">
         <v>202</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C203" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E203" s="2" t="s">
         <v>39</v>
@@ -17749,12 +17749,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A204" s="1">
         <v>203</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C204" s="2" t="s">
         <v>31</v>
@@ -17823,15 +17823,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A205" s="1">
         <v>204</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D205" s="2" t="s">
         <v>75</v>
@@ -17897,12 +17897,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A206" s="1">
         <v>205</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C206" s="2" t="s">
         <v>23</v>
@@ -17971,12 +17971,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A207" s="1">
         <v>206</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C207" s="2" t="s">
         <v>23</v>
@@ -18045,12 +18045,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A208" s="1">
         <v>207</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C208" s="2" t="s">
         <v>107</v>
@@ -18119,12 +18119,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A209" s="1">
         <v>208</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C209" s="2" t="s">
         <v>23</v>
@@ -18193,12 +18193,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A210" s="1">
         <v>209</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C210" s="2" t="s">
         <v>23</v>
@@ -18267,12 +18267,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A211" s="1">
         <v>210</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C211" s="2" t="s">
         <v>23</v>
@@ -18341,15 +18341,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A212" s="1">
         <v>211</v>
       </c>
       <c r="B212" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="C212" s="2" t="s">
         <v>301</v>
-      </c>
-      <c r="C212" s="2" t="s">
-        <v>302</v>
       </c>
       <c r="D212" s="2" t="s">
         <v>20</v>
@@ -18415,12 +18415,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A213" s="1">
         <v>212</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C213" s="2" t="s">
         <v>107</v>
@@ -18489,12 +18489,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A214" s="1">
         <v>213</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C214" s="2" t="s">
         <v>43</v>
@@ -18563,21 +18563,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A215" s="1">
         <v>214</v>
       </c>
       <c r="B215" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="C215" s="2" t="s">
         <v>305</v>
-      </c>
-      <c r="C215" s="2" t="s">
-        <v>306</v>
       </c>
       <c r="D215" s="2" t="s">
         <v>75</v>
       </c>
       <c r="E215" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F215" s="2">
         <v>31</v>
@@ -18637,12 +18637,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A216" s="1">
         <v>215</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C216" s="2" t="s">
         <v>23</v>
@@ -18711,15 +18711,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A217" s="1">
         <v>216</v>
       </c>
       <c r="B217" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="C217" s="2" t="s">
         <v>308</v>
-      </c>
-      <c r="C217" s="2" t="s">
-        <v>309</v>
       </c>
       <c r="D217" s="2" t="s">
         <v>50</v>
@@ -18785,15 +18785,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="218" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A218" s="1">
         <v>217</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D218" s="2" t="s">
         <v>95</v>
@@ -18859,12 +18859,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A219" s="1">
         <v>218</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C219" s="2" t="s">
         <v>23</v>
@@ -18933,21 +18933,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A220" s="1">
         <v>219</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C220" s="2" t="s">
         <v>62</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E220" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F220" s="2">
         <v>35</v>
@@ -19007,15 +19007,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A221" s="1">
         <v>220</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D221" s="2" t="s">
         <v>20</v>
@@ -19081,12 +19081,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A222" s="1">
         <v>221</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C222" s="2" t="s">
         <v>43</v>
@@ -19095,7 +19095,7 @@
         <v>83</v>
       </c>
       <c r="E222" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F222" s="2">
         <v>26</v>
@@ -19155,12 +19155,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A223" s="1">
         <v>222</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C223" s="2" t="s">
         <v>107</v>
@@ -19229,12 +19229,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A224" s="1">
         <v>223</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C224" s="2" t="s">
         <v>23</v>
@@ -19303,12 +19303,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A225" s="1">
         <v>224</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C225" s="2" t="s">
         <v>31</v>
@@ -19377,12 +19377,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A226" s="1">
         <v>225</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C226" s="2" t="s">
         <v>31</v>
@@ -19451,12 +19451,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A227" s="1">
         <v>226</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C227" s="2" t="s">
         <v>23</v>
@@ -19525,12 +19525,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A228" s="1">
         <v>227</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C228" s="2" t="s">
         <v>23</v>
@@ -19599,12 +19599,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A229" s="1">
         <v>228</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C229" s="2" t="s">
         <v>23</v>
@@ -19673,12 +19673,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A230" s="1">
         <v>229</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C230" s="2" t="s">
         <v>62</v>
@@ -19747,21 +19747,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A231" s="1">
         <v>230</v>
       </c>
       <c r="B231" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="C231" s="2" t="s">
         <v>322</v>
-      </c>
-      <c r="C231" s="2" t="s">
-        <v>323</v>
       </c>
       <c r="D231" s="2" t="s">
         <v>20</v>
       </c>
       <c r="E231" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F231" s="2">
         <v>21</v>
@@ -19821,12 +19821,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A232" s="1">
         <v>231</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C232" s="2" t="s">
         <v>23</v>
@@ -19895,15 +19895,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A233" s="1">
         <v>232</v>
       </c>
       <c r="B233" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="C233" s="2" t="s">
         <v>325</v>
-      </c>
-      <c r="C233" s="2" t="s">
-        <v>326</v>
       </c>
       <c r="D233" s="2" t="s">
         <v>75</v>
@@ -19969,21 +19969,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A234" s="1">
         <v>233</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C234" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D234" s="2" t="s">
         <v>24</v>
       </c>
       <c r="E234" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F234" s="2">
         <v>40</v>
@@ -20043,12 +20043,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A235" s="1">
         <v>234</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C235" s="2" t="s">
         <v>105</v>
@@ -20117,12 +20117,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A236" s="1">
         <v>235</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C236" s="2" t="s">
         <v>107</v>
@@ -20191,15 +20191,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A237" s="1">
         <v>236</v>
       </c>
       <c r="B237" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="C237" s="2" t="s">
         <v>330</v>
-      </c>
-      <c r="C237" s="2" t="s">
-        <v>331</v>
       </c>
       <c r="D237" s="2" t="s">
         <v>75</v>
@@ -20265,18 +20265,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A238" s="1">
         <v>237</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C238" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D238" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E238" s="2" t="s">
         <v>41</v>
@@ -20339,12 +20339,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A239" s="1">
         <v>238</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C239" s="2" t="s">
         <v>23</v>
@@ -20413,12 +20413,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A240" s="1">
         <v>239</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C240" s="2" t="s">
         <v>62</v>
@@ -20487,15 +20487,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A241" s="1">
         <v>240</v>
       </c>
       <c r="B241" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="C241" s="2" t="s">
         <v>335</v>
-      </c>
-      <c r="C241" s="2" t="s">
-        <v>336</v>
       </c>
       <c r="D241" s="2" t="s">
         <v>20</v>
@@ -20561,12 +20561,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A242" s="1">
         <v>241</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C242" s="2" t="s">
         <v>31</v>
@@ -20635,12 +20635,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A243" s="1">
         <v>242</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C243" s="2" t="s">
         <v>23</v>
@@ -20709,12 +20709,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A244" s="1">
         <v>243</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C244" s="2" t="s">
         <v>23</v>
@@ -20783,12 +20783,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A245" s="1">
         <v>244</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C245" s="2" t="s">
         <v>46</v>
@@ -20857,12 +20857,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A246" s="1">
         <v>245</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C246" s="2" t="s">
         <v>23</v>
@@ -20931,12 +20931,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A247" s="1">
         <v>246</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C247" s="2" t="s">
         <v>43</v>
@@ -21005,12 +21005,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A248" s="1">
         <v>247</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C248" s="2" t="s">
         <v>62</v>
@@ -21019,7 +21019,7 @@
         <v>95</v>
       </c>
       <c r="E248" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F248" s="2">
         <v>26</v>
@@ -21079,12 +21079,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A249" s="1">
         <v>248</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C249" s="2" t="s">
         <v>116</v>
@@ -21153,18 +21153,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A250" s="1">
         <v>249</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C250" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D250" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E250" s="2" t="s">
         <v>57</v>
@@ -21227,12 +21227,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A251" s="1">
         <v>250</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C251" s="2" t="s">
         <v>62</v>
@@ -21301,12 +21301,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A252" s="1">
         <v>251</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C252" s="2" t="s">
         <v>23</v>
@@ -21315,7 +21315,7 @@
         <v>20</v>
       </c>
       <c r="E252" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F252" s="2">
         <v>32</v>
@@ -21375,12 +21375,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A253" s="1">
         <v>252</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C253" s="2" t="s">
         <v>59</v>
@@ -21449,12 +21449,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A254" s="1">
         <v>253</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C254" s="2" t="s">
         <v>89</v>
@@ -21523,12 +21523,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A255" s="1">
         <v>254</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C255" s="2" t="s">
         <v>71</v>
@@ -21597,12 +21597,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A256" s="1">
         <v>255</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C256" s="2" t="s">
         <v>113</v>
@@ -21671,12 +21671,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A257" s="1">
         <v>256</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C257" s="2" t="s">
         <v>78</v>
@@ -21745,12 +21745,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A258" s="1">
         <v>257</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C258" s="2" t="s">
         <v>23</v>
@@ -21819,12 +21819,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="259" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A259" s="1">
         <v>258</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C259" s="2" t="s">
         <v>111</v>
@@ -21893,15 +21893,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A260" s="1">
         <v>259</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C260" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D260" s="2" t="s">
         <v>50</v>
@@ -21967,12 +21967,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A261" s="1">
         <v>260</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C261" s="2" t="s">
         <v>23</v>
@@ -22041,12 +22041,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A262" s="1">
         <v>261</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C262" s="2" t="s">
         <v>62</v>
@@ -22115,18 +22115,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A263" s="1">
         <v>262</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C263" s="2" t="s">
         <v>46</v>
       </c>
       <c r="D263" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E263" s="2" t="s">
         <v>34</v>
@@ -22189,15 +22189,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A264" s="1">
         <v>263</v>
       </c>
       <c r="B264" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="C264" s="2" t="s">
         <v>359</v>
-      </c>
-      <c r="C264" s="2" t="s">
-        <v>360</v>
       </c>
       <c r="D264" s="2" t="s">
         <v>50</v>
@@ -22263,12 +22263,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A265" s="1">
         <v>264</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C265" s="2" t="s">
         <v>59</v>
@@ -22337,18 +22337,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A266" s="1">
         <v>265</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C266" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D266" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E266" s="2" t="s">
         <v>44</v>
@@ -22411,12 +22411,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A267" s="1">
         <v>266</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C267" s="2" t="s">
         <v>46</v>
@@ -22485,12 +22485,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A268" s="1">
         <v>267</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C268" s="2" t="s">
         <v>62</v>
@@ -22559,12 +22559,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A269" s="1">
         <v>268</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C269" s="2" t="s">
         <v>23</v>
@@ -22633,15 +22633,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A270" s="1">
         <v>269</v>
       </c>
       <c r="B270" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="C270" s="2" t="s">
         <v>366</v>
-      </c>
-      <c r="C270" s="2" t="s">
-        <v>367</v>
       </c>
       <c r="D270" s="2" t="s">
         <v>75</v>
@@ -22707,12 +22707,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A271" s="1">
         <v>270</v>
       </c>
       <c r="B271" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C271" s="2" t="s">
         <v>23</v>
@@ -22781,12 +22781,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A272" s="1">
         <v>271</v>
       </c>
       <c r="B272" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C272" s="2" t="s">
         <v>23</v>
@@ -22855,12 +22855,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A273" s="1">
         <v>272</v>
       </c>
       <c r="B273" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C273" s="2" t="s">
         <v>23</v>
@@ -22929,15 +22929,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A274" s="1">
         <v>273</v>
       </c>
       <c r="B274" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C274" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D274" s="2" t="s">
         <v>20</v>
@@ -23003,12 +23003,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A275" s="1">
         <v>274</v>
       </c>
       <c r="B275" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C275" s="2" t="s">
         <v>23</v>
@@ -23077,12 +23077,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A276" s="1">
         <v>275</v>
       </c>
       <c r="B276" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C276" s="2" t="s">
         <v>19</v>
@@ -23151,12 +23151,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A277" s="1">
         <v>276</v>
       </c>
       <c r="B277" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C277" s="2" t="s">
         <v>71</v>
@@ -23165,7 +23165,7 @@
         <v>50</v>
       </c>
       <c r="E277" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F277" s="2">
         <v>24</v>
@@ -23225,12 +23225,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A278" s="1">
         <v>277</v>
       </c>
       <c r="B278" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C278" s="2" t="s">
         <v>23</v>
@@ -23299,12 +23299,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A279" s="1">
         <v>278</v>
       </c>
       <c r="B279" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C279" s="2" t="s">
         <v>23</v>
@@ -23373,12 +23373,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A280" s="1">
         <v>279</v>
       </c>
       <c r="B280" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C280" s="2" t="s">
         <v>99</v>
@@ -23447,12 +23447,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A281" s="1">
         <v>280</v>
       </c>
       <c r="B281" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C281" s="2" t="s">
         <v>43</v>
@@ -23521,12 +23521,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A282" s="1">
         <v>281</v>
       </c>
       <c r="B282" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C282" s="2" t="s">
         <v>23</v>
@@ -23595,12 +23595,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A283" s="1">
         <v>282</v>
       </c>
       <c r="B283" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C283" s="2" t="s">
         <v>111</v>
@@ -23669,12 +23669,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A284" s="1">
         <v>283</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C284" s="2" t="s">
         <v>74</v>
@@ -23743,12 +23743,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A285" s="1">
         <v>284</v>
       </c>
       <c r="B285" s="2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C285" s="2" t="s">
         <v>23</v>
@@ -23817,12 +23817,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A286" s="1">
         <v>285</v>
       </c>
       <c r="B286" s="2" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C286" s="2" t="s">
         <v>23</v>
@@ -23891,12 +23891,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A287" s="1">
         <v>286</v>
       </c>
       <c r="B287" s="2" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C287" s="2" t="s">
         <v>59</v>
@@ -23965,15 +23965,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A288" s="1">
         <v>287</v>
       </c>
       <c r="B288" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="C288" s="2" t="s">
         <v>385</v>
-      </c>
-      <c r="C288" s="2" t="s">
-        <v>386</v>
       </c>
       <c r="D288" s="2" t="s">
         <v>75</v>
@@ -24039,12 +24039,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A289" s="1">
         <v>288</v>
       </c>
       <c r="B289" s="2" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C289" s="2" t="s">
         <v>43</v>
@@ -24113,12 +24113,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A290" s="1">
         <v>289</v>
       </c>
       <c r="B290" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C290" s="2" t="s">
         <v>23</v>
@@ -24187,12 +24187,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A291" s="1">
         <v>290</v>
       </c>
       <c r="B291" s="2" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C291" s="2" t="s">
         <v>107</v>
@@ -24261,12 +24261,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A292" s="1">
         <v>291</v>
       </c>
       <c r="B292" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C292" s="2" t="s">
         <v>23</v>
@@ -24275,7 +24275,7 @@
         <v>95</v>
       </c>
       <c r="E292" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F292" s="2">
         <v>20</v>
@@ -24335,12 +24335,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="293" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A293" s="1">
         <v>292</v>
       </c>
       <c r="B293" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C293" s="2" t="s">
         <v>23</v>
@@ -24349,7 +24349,7 @@
         <v>95</v>
       </c>
       <c r="E293" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F293" s="2">
         <v>19</v>
@@ -24409,15 +24409,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A294" s="1">
         <v>293</v>
       </c>
       <c r="B294" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C294" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D294" s="2" t="s">
         <v>24</v>
@@ -24483,15 +24483,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A295" s="1">
         <v>294</v>
       </c>
       <c r="B295" s="2" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C295" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D295" s="2" t="s">
         <v>20</v>
@@ -24557,12 +24557,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A296" s="1">
         <v>295</v>
       </c>
       <c r="B296" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C296" s="2" t="s">
         <v>23</v>
@@ -24631,12 +24631,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A297" s="1">
         <v>296</v>
       </c>
       <c r="B297" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C297" s="2" t="s">
         <v>23</v>
@@ -24705,12 +24705,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A298" s="1">
         <v>297</v>
       </c>
       <c r="B298" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C298" s="2" t="s">
         <v>23</v>
@@ -24779,12 +24779,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A299" s="1">
         <v>298</v>
       </c>
       <c r="B299" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C299" s="2" t="s">
         <v>46</v>
@@ -24853,12 +24853,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A300" s="1">
         <v>299</v>
       </c>
       <c r="B300" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C300" s="2" t="s">
         <v>19</v>
@@ -24927,12 +24927,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A301" s="1">
         <v>300</v>
       </c>
       <c r="B301" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C301" s="2" t="s">
         <v>23</v>
@@ -25001,12 +25001,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A302" s="1">
         <v>301</v>
       </c>
       <c r="B302" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C302" s="2" t="s">
         <v>62</v>
@@ -25075,12 +25075,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A303" s="1">
         <v>302</v>
       </c>
       <c r="B303" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C303" s="2" t="s">
         <v>23</v>
@@ -25149,15 +25149,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A304" s="1">
         <v>303</v>
       </c>
       <c r="B304" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="C304" s="2" t="s">
         <v>402</v>
-      </c>
-      <c r="C304" s="2" t="s">
-        <v>403</v>
       </c>
       <c r="D304" s="2" t="s">
         <v>20</v>
@@ -25223,12 +25223,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A305" s="1">
         <v>304</v>
       </c>
       <c r="B305" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C305" s="2" t="s">
         <v>23</v>
@@ -25237,7 +25237,7 @@
         <v>50</v>
       </c>
       <c r="E305" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F305" s="2">
         <v>23</v>
@@ -25297,12 +25297,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A306" s="1">
         <v>305</v>
       </c>
       <c r="B306" s="2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C306" s="2" t="s">
         <v>19</v>
@@ -25371,15 +25371,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A307" s="1">
         <v>306</v>
       </c>
       <c r="B307" s="2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C307" s="2" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D307" s="2" t="s">
         <v>50</v>
@@ -25445,12 +25445,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A308" s="1">
         <v>307</v>
       </c>
       <c r="B308" s="2" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C308" s="2" t="s">
         <v>23</v>
@@ -25519,15 +25519,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A309" s="1">
         <v>308</v>
       </c>
       <c r="B309" s="2" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C309" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D309" s="2" t="s">
         <v>50</v>
@@ -25593,15 +25593,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A310" s="1">
         <v>309</v>
       </c>
       <c r="B310" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C310" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D310" s="2" t="s">
         <v>20</v>
@@ -25667,12 +25667,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A311" s="1">
         <v>310</v>
       </c>
       <c r="B311" s="2" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C311" s="2" t="s">
         <v>111</v>
@@ -25741,12 +25741,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A312" s="1">
         <v>311</v>
       </c>
       <c r="B312" s="2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C312" s="2" t="s">
         <v>23</v>
@@ -25815,12 +25815,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A313" s="1">
         <v>312</v>
       </c>
       <c r="B313" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C313" s="2" t="s">
         <v>62</v>
@@ -25889,12 +25889,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A314" s="1">
         <v>313</v>
       </c>
       <c r="B314" s="2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C314" s="2" t="s">
         <v>62</v>
@@ -25963,12 +25963,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="315" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A315" s="1">
         <v>314</v>
       </c>
       <c r="B315" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C315" s="2" t="s">
         <v>23</v>
@@ -25977,7 +25977,7 @@
         <v>83</v>
       </c>
       <c r="E315" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F315" s="2">
         <v>25</v>
@@ -26037,15 +26037,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A316" s="1">
         <v>315</v>
       </c>
       <c r="B316" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="C316" s="2" t="s">
         <v>415</v>
-      </c>
-      <c r="C316" s="2" t="s">
-        <v>416</v>
       </c>
       <c r="D316" s="2" t="s">
         <v>50</v>
@@ -26111,12 +26111,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="317" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A317" s="1">
         <v>316</v>
       </c>
       <c r="B317" s="2" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C317" s="2" t="s">
         <v>23</v>
@@ -26185,15 +26185,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A318" s="1">
         <v>317</v>
       </c>
       <c r="B318" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C318" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D318" s="2" t="s">
         <v>50</v>
@@ -26259,15 +26259,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="319" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A319" s="1">
         <v>318</v>
       </c>
       <c r="B319" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C319" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D319" s="2" t="s">
         <v>20</v>
@@ -26333,12 +26333,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A320" s="1">
         <v>319</v>
       </c>
       <c r="B320" s="2" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C320" s="2" t="s">
         <v>23</v>
@@ -26407,12 +26407,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="321" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A321" s="1">
         <v>320</v>
       </c>
       <c r="B321" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C321" s="2" t="s">
         <v>23</v>
@@ -26481,12 +26481,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A322" s="1">
         <v>321</v>
       </c>
       <c r="B322" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C322" s="2" t="s">
         <v>19</v>
@@ -26555,21 +26555,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="323" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A323" s="1">
         <v>322</v>
       </c>
       <c r="B323" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C323" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D323" s="2" t="s">
         <v>75</v>
       </c>
       <c r="E323" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F323" s="2">
         <v>27</v>
@@ -26629,15 +26629,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A324" s="1">
         <v>323</v>
       </c>
       <c r="B324" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="C324" s="2" t="s">
         <v>423</v>
-      </c>
-      <c r="C324" s="2" t="s">
-        <v>424</v>
       </c>
       <c r="D324" s="2" t="s">
         <v>47</v>
@@ -26703,12 +26703,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="325" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A325" s="1">
         <v>324</v>
       </c>
       <c r="B325" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C325" s="2" t="s">
         <v>23</v>
@@ -26777,12 +26777,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A326" s="1">
         <v>325</v>
       </c>
       <c r="B326" s="2" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C326" s="2" t="s">
         <v>19</v>
@@ -26851,18 +26851,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A327" s="1">
         <v>326</v>
       </c>
       <c r="B327" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C327" s="2" t="s">
         <v>46</v>
       </c>
       <c r="D327" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E327" s="2" t="s">
         <v>21</v>
@@ -26925,12 +26925,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A328" s="1">
         <v>327</v>
       </c>
       <c r="B328" s="2" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C328" s="2" t="s">
         <v>23</v>
@@ -26999,12 +26999,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="329" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A329" s="1">
         <v>328</v>
       </c>
       <c r="B329" s="2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C329" s="2" t="s">
         <v>23</v>
@@ -27013,7 +27013,7 @@
         <v>20</v>
       </c>
       <c r="E329" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F329" s="2">
         <v>19</v>
@@ -27073,12 +27073,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A330" s="1">
         <v>329</v>
       </c>
       <c r="B330" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C330" s="2" t="s">
         <v>23</v>
@@ -27147,12 +27147,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A331" s="1">
         <v>330</v>
       </c>
       <c r="B331" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C331" s="2" t="s">
         <v>23</v>
@@ -27221,12 +27221,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A332" s="1">
         <v>331</v>
       </c>
       <c r="B332" s="2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C332" s="2" t="s">
         <v>62</v>
@@ -27295,12 +27295,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A333" s="1">
         <v>332</v>
       </c>
       <c r="B333" s="2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C333" s="2" t="s">
         <v>23</v>
@@ -27369,12 +27369,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="334" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A334" s="1">
         <v>333</v>
       </c>
       <c r="B334" s="2" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C334" s="2" t="s">
         <v>23</v>
@@ -27443,12 +27443,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A335" s="1">
         <v>334</v>
       </c>
       <c r="B335" s="2" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C335" s="2" t="s">
         <v>23</v>
@@ -27517,12 +27517,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="336" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A336" s="1">
         <v>335</v>
       </c>
       <c r="B336" s="2" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C336" s="2" t="s">
         <v>23</v>
@@ -27591,12 +27591,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A337" s="1">
         <v>336</v>
       </c>
       <c r="B337" s="2" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C337" s="2" t="s">
         <v>23</v>
@@ -27665,12 +27665,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A338" s="1">
         <v>337</v>
       </c>
       <c r="B338" s="2" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C338" s="2" t="s">
         <v>23</v>
@@ -27739,12 +27739,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="339" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A339" s="1">
         <v>338</v>
       </c>
       <c r="B339" s="2" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C339" s="2" t="s">
         <v>78</v>
@@ -27813,15 +27813,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A340" s="1">
         <v>339</v>
       </c>
       <c r="B340" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="C340" s="2" t="s">
         <v>440</v>
-      </c>
-      <c r="C340" s="2" t="s">
-        <v>441</v>
       </c>
       <c r="D340" s="2" t="s">
         <v>47</v>
@@ -27887,12 +27887,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A341" s="1">
         <v>340</v>
       </c>
       <c r="B341" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C341" s="2" t="s">
         <v>111</v>
@@ -27901,7 +27901,7 @@
         <v>47</v>
       </c>
       <c r="E341" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F341" s="2">
         <v>29</v>
@@ -27961,12 +27961,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="342" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A342" s="1">
         <v>341</v>
       </c>
       <c r="B342" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C342" s="2" t="s">
         <v>59</v>
@@ -27975,7 +27975,7 @@
         <v>20</v>
       </c>
       <c r="E342" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F342" s="2">
         <v>32</v>
@@ -28035,15 +28035,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="343" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A343" s="1">
         <v>342</v>
       </c>
       <c r="B343" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C343" s="2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D343" s="2" t="s">
         <v>75</v>
@@ -28109,15 +28109,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="344" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A344" s="1">
         <v>343</v>
       </c>
       <c r="B344" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C344" s="2" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D344" s="2" t="s">
         <v>75</v>
@@ -28183,12 +28183,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="345" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A345" s="1">
         <v>344</v>
       </c>
       <c r="B345" s="2" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C345" s="2" t="s">
         <v>23</v>
@@ -28257,12 +28257,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="346" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A346" s="1">
         <v>345</v>
       </c>
       <c r="B346" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C346" s="2" t="s">
         <v>62</v>
@@ -28331,12 +28331,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="347" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A347" s="1">
         <v>346</v>
       </c>
       <c r="B347" s="2" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C347" s="2" t="s">
         <v>46</v>
@@ -28405,12 +28405,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="348" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A348" s="1">
         <v>347</v>
       </c>
       <c r="B348" s="2" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C348" s="2" t="s">
         <v>59</v>
@@ -28479,15 +28479,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="349" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A349" s="1">
         <v>348</v>
       </c>
       <c r="B349" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="C349" s="2" t="s">
         <v>450</v>
-      </c>
-      <c r="C349" s="2" t="s">
-        <v>451</v>
       </c>
       <c r="D349" s="2" t="s">
         <v>75</v>
@@ -28553,12 +28553,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="350" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A350" s="1">
         <v>349</v>
       </c>
       <c r="B350" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C350" s="2" t="s">
         <v>23</v>
@@ -28627,15 +28627,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A351" s="1">
         <v>350</v>
       </c>
       <c r="B351" s="2" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C351" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D351" s="2" t="s">
         <v>75</v>
@@ -28701,12 +28701,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A352" s="1">
         <v>351</v>
       </c>
       <c r="B352" s="2" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C352" s="2" t="s">
         <v>31</v>
@@ -28775,15 +28775,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A353" s="1">
         <v>352</v>
       </c>
       <c r="B353" s="2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C353" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D353" s="2" t="s">
         <v>50</v>
@@ -28849,12 +28849,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A354" s="1">
         <v>353</v>
       </c>
       <c r="B354" s="2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C354" s="2" t="s">
         <v>23</v>
@@ -28923,12 +28923,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="355" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A355" s="1">
         <v>354</v>
       </c>
       <c r="B355" s="2" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C355" s="2" t="s">
         <v>31</v>
@@ -28997,15 +28997,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A356" s="1">
         <v>355</v>
       </c>
       <c r="B356" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="C356" s="2" t="s">
         <v>457</v>
-      </c>
-      <c r="C356" s="2" t="s">
-        <v>458</v>
       </c>
       <c r="D356" s="2" t="s">
         <v>20</v>
@@ -29071,12 +29071,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="357" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A357" s="1">
         <v>356</v>
       </c>
       <c r="B357" s="2" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C357" s="2" t="s">
         <v>43</v>
@@ -29145,12 +29145,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="358" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A358" s="1">
         <v>357</v>
       </c>
       <c r="B358" s="2" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C358" s="2" t="s">
         <v>62</v>
@@ -29219,12 +29219,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="359" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A359" s="1">
         <v>358</v>
       </c>
       <c r="B359" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C359" s="2" t="s">
         <v>23</v>
@@ -29293,15 +29293,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="360" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A360" s="1">
         <v>359</v>
       </c>
       <c r="B360" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="C360" s="2" t="s">
         <v>462</v>
-      </c>
-      <c r="C360" s="2" t="s">
-        <v>463</v>
       </c>
       <c r="D360" s="2" t="s">
         <v>20</v>
@@ -29367,15 +29367,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="361" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A361" s="1">
         <v>360</v>
       </c>
       <c r="B361" s="2" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C361" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D361" s="2" t="s">
         <v>24</v>
@@ -29441,12 +29441,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="362" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A362" s="1">
         <v>361</v>
       </c>
       <c r="B362" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C362" s="2" t="s">
         <v>105</v>
@@ -29515,12 +29515,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="363" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A363" s="1">
         <v>362</v>
       </c>
       <c r="B363" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C363" s="2" t="s">
         <v>23</v>
@@ -29589,12 +29589,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="364" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A364" s="1">
         <v>363</v>
       </c>
       <c r="B364" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C364" s="2" t="s">
         <v>23</v>
@@ -29603,7 +29603,7 @@
         <v>20</v>
       </c>
       <c r="E364" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F364" s="2">
         <v>19</v>
@@ -29663,12 +29663,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="365" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A365" s="1">
         <v>364</v>
       </c>
       <c r="B365" s="2" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C365" s="2" t="s">
         <v>23</v>
@@ -29737,12 +29737,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="366" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A366" s="1">
         <v>365</v>
       </c>
       <c r="B366" s="2" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C366" s="2" t="s">
         <v>43</v>
@@ -29811,12 +29811,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="367" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A367" s="1">
         <v>366</v>
       </c>
       <c r="B367" s="2" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C367" s="2" t="s">
         <v>23</v>
@@ -29825,7 +29825,7 @@
         <v>24</v>
       </c>
       <c r="E367" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F367" s="2">
         <v>35</v>
@@ -29885,12 +29885,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="368" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A368" s="1">
         <v>367</v>
       </c>
       <c r="B368" s="2" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C368" s="2" t="s">
         <v>89</v>
@@ -29899,7 +29899,7 @@
         <v>75</v>
       </c>
       <c r="E368" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F368" s="2">
         <v>22</v>
@@ -29959,12 +29959,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="369" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A369" s="1">
         <v>368</v>
       </c>
       <c r="B369" s="2" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C369" s="2" t="s">
         <v>23</v>
@@ -30033,15 +30033,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="370" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A370" s="1">
         <v>369</v>
       </c>
       <c r="B370" s="2" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C370" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D370" s="2" t="s">
         <v>95</v>
@@ -30107,12 +30107,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="371" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A371" s="1">
         <v>370</v>
       </c>
       <c r="B371" s="2" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C371" s="2" t="s">
         <v>23</v>
@@ -30181,12 +30181,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="372" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A372" s="1">
         <v>371</v>
       </c>
       <c r="B372" s="2" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C372" s="2" t="s">
         <v>59</v>
@@ -30255,12 +30255,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="373" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A373" s="1">
         <v>372</v>
       </c>
       <c r="B373" s="2" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C373" s="2" t="s">
         <v>23</v>
@@ -30329,12 +30329,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="374" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A374" s="1">
         <v>373</v>
       </c>
       <c r="B374" s="2" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C374" s="2" t="s">
         <v>107</v>
@@ -30403,12 +30403,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="375" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A375" s="1">
         <v>374</v>
       </c>
       <c r="B375" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C375" s="2" t="s">
         <v>23</v>
@@ -30477,15 +30477,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="376" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A376" s="1">
         <v>375</v>
       </c>
       <c r="B376" s="2" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C376" s="2" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D376" s="2" t="s">
         <v>75</v>
@@ -30551,12 +30551,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="377" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A377" s="1">
         <v>376</v>
       </c>
       <c r="B377" s="2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C377" s="2" t="s">
         <v>46</v>
@@ -30625,12 +30625,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="378" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A378" s="1">
         <v>377</v>
       </c>
       <c r="B378" s="2" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C378" s="2" t="s">
         <v>89</v>
@@ -30699,15 +30699,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="379" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A379" s="1">
         <v>378</v>
       </c>
       <c r="B379" s="2" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C379" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D379" s="2" t="s">
         <v>20</v>
@@ -30773,21 +30773,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="380" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A380" s="1">
         <v>379</v>
       </c>
       <c r="B380" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="C380" s="2" t="s">
         <v>483</v>
-      </c>
-      <c r="C380" s="2" t="s">
-        <v>484</v>
       </c>
       <c r="D380" s="2" t="s">
         <v>75</v>
       </c>
       <c r="E380" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F380" s="2">
         <v>30</v>
@@ -30847,15 +30847,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="381" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A381" s="1">
         <v>380</v>
       </c>
       <c r="B381" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C381" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D381" s="2" t="s">
         <v>20</v>
@@ -30921,15 +30921,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="382" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A382" s="1">
         <v>381</v>
       </c>
       <c r="B382" s="2" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C382" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D382" s="2" t="s">
         <v>47</v>
@@ -30995,12 +30995,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="383" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A383" s="1">
         <v>382</v>
       </c>
       <c r="B383" s="2" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C383" s="2" t="s">
         <v>23</v>
@@ -31069,15 +31069,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="384" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A384" s="1">
         <v>383</v>
       </c>
       <c r="B384" s="2" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C384" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D384" s="2" t="s">
         <v>20</v>
@@ -31143,12 +31143,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="385" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A385" s="1">
         <v>384</v>
       </c>
       <c r="B385" s="2" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C385" s="2" t="s">
         <v>19</v>
@@ -31217,12 +31217,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="386" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A386" s="1">
         <v>385</v>
       </c>
       <c r="B386" s="2" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C386" s="2" t="s">
         <v>23</v>
@@ -31291,12 +31291,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="387" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A387" s="1">
         <v>386</v>
       </c>
       <c r="B387" s="2" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C387" s="2" t="s">
         <v>23</v>
@@ -31365,12 +31365,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="388" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A388" s="1">
         <v>387</v>
       </c>
       <c r="B388" s="2" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C388" s="2" t="s">
         <v>62</v>
@@ -31439,12 +31439,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="389" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A389" s="1">
         <v>388</v>
       </c>
       <c r="B389" s="2" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C389" s="2" t="s">
         <v>62</v>
@@ -31513,12 +31513,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="390" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A390" s="1">
         <v>389</v>
       </c>
       <c r="B390" s="2" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C390" s="2" t="s">
         <v>31</v>
@@ -31587,12 +31587,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="391" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A391" s="1">
         <v>390</v>
       </c>
       <c r="B391" s="2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C391" s="2" t="s">
         <v>31</v>
@@ -31661,12 +31661,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="392" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A392" s="1">
         <v>391</v>
       </c>
       <c r="B392" s="2" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C392" s="2" t="s">
         <v>31</v>
@@ -31735,12 +31735,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="393" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A393" s="1">
         <v>392</v>
       </c>
       <c r="B393" s="2" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C393" s="2" t="s">
         <v>23</v>
@@ -31809,12 +31809,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="394" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A394" s="1">
         <v>393</v>
       </c>
       <c r="B394" s="2" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C394" s="2" t="s">
         <v>23</v>
@@ -31883,15 +31883,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="395" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A395" s="1">
         <v>394</v>
       </c>
       <c r="B395" s="2" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C395" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D395" s="2" t="s">
         <v>20</v>
@@ -31957,12 +31957,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="396" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A396" s="1">
         <v>395</v>
       </c>
       <c r="B396" s="2" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C396" s="2" t="s">
         <v>23</v>
@@ -32031,12 +32031,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="397" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A397" s="1">
         <v>396</v>
       </c>
       <c r="B397" s="2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C397" s="2" t="s">
         <v>23</v>
@@ -32105,15 +32105,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="398" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A398" s="1">
         <v>397</v>
       </c>
       <c r="B398" s="2" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C398" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D398" s="2" t="s">
         <v>75</v>
@@ -32179,15 +32179,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="399" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A399" s="1">
         <v>398</v>
       </c>
       <c r="B399" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="C399" s="2" t="s">
         <v>503</v>
-      </c>
-      <c r="C399" s="2" t="s">
-        <v>504</v>
       </c>
       <c r="D399" s="2" t="s">
         <v>47</v>
@@ -32253,15 +32253,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="400" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A400" s="1">
         <v>399</v>
       </c>
       <c r="B400" s="2" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C400" s="2" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D400" s="2" t="s">
         <v>50</v>
@@ -32327,12 +32327,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="401" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A401" s="1">
         <v>400</v>
       </c>
       <c r="B401" s="2" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C401" s="2" t="s">
         <v>23</v>
@@ -32401,12 +32401,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="402" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A402" s="1">
         <v>401</v>
       </c>
       <c r="B402" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C402" s="2" t="s">
         <v>31</v>
@@ -32475,15 +32475,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="403" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A403" s="1">
         <v>402</v>
       </c>
       <c r="B403" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C403" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D403" s="2" t="s">
         <v>47</v>
@@ -32549,12 +32549,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="404" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A404" s="1">
         <v>403</v>
       </c>
       <c r="B404" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C404" s="2" t="s">
         <v>31</v>
@@ -32623,12 +32623,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="405" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A405" s="1">
         <v>404</v>
       </c>
       <c r="B405" s="2" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C405" s="2" t="s">
         <v>102</v>
@@ -32697,12 +32697,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="406" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A406" s="1">
         <v>405</v>
       </c>
       <c r="B406" s="2" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C406" s="2" t="s">
         <v>111</v>
@@ -32771,12 +32771,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="407" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A407" s="1">
         <v>406</v>
       </c>
       <c r="B407" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C407" s="2" t="s">
         <v>23</v>
@@ -32845,12 +32845,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="408" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A408" s="1">
         <v>407</v>
       </c>
       <c r="B408" s="2" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C408" s="2" t="s">
         <v>23</v>
@@ -32919,12 +32919,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="409" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A409" s="1">
         <v>408</v>
       </c>
       <c r="B409" s="2" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C409" s="2" t="s">
         <v>23</v>
@@ -32993,15 +32993,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="410" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A410" s="1">
         <v>409</v>
       </c>
       <c r="B410" s="2" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C410" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D410" s="2" t="s">
         <v>83</v>
@@ -33067,12 +33067,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="411" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A411" s="1">
         <v>410</v>
       </c>
       <c r="B411" s="2" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C411" s="2" t="s">
         <v>23</v>
@@ -33141,12 +33141,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="412" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A412" s="1">
         <v>411</v>
       </c>
       <c r="B412" s="2" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C412" s="2" t="s">
         <v>107</v>
@@ -33215,12 +33215,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="413" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A413" s="1">
         <v>412</v>
       </c>
       <c r="B413" s="2" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C413" s="2" t="s">
         <v>43</v>
@@ -33289,12 +33289,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="414" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A414" s="1">
         <v>413</v>
       </c>
       <c r="B414" s="2" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C414" s="2" t="s">
         <v>71</v>
@@ -33363,15 +33363,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="415" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A415" s="1">
         <v>414</v>
       </c>
       <c r="B415" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="C415" s="2" t="s">
         <v>520</v>
-      </c>
-      <c r="C415" s="2" t="s">
-        <v>521</v>
       </c>
       <c r="D415" s="2" t="s">
         <v>95</v>
@@ -33437,15 +33437,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="416" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A416" s="1">
         <v>415</v>
       </c>
       <c r="B416" s="2" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C416" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D416" s="2" t="s">
         <v>75</v>
@@ -33511,12 +33511,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="417" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A417" s="1">
         <v>416</v>
       </c>
       <c r="B417" s="2" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C417" s="2" t="s">
         <v>23</v>
@@ -33585,15 +33585,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="418" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A418" s="1">
         <v>417</v>
       </c>
       <c r="B418" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="C418" s="2" t="s">
         <v>524</v>
-      </c>
-      <c r="C418" s="2" t="s">
-        <v>525</v>
       </c>
       <c r="D418" s="2" t="s">
         <v>20</v>
@@ -33659,12 +33659,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="419" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A419" s="1">
         <v>418</v>
       </c>
       <c r="B419" s="2" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C419" s="2" t="s">
         <v>23</v>
@@ -33733,18 +33733,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="420" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A420" s="1">
         <v>419</v>
       </c>
       <c r="B420" s="2" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C420" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D420" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E420" s="2" t="s">
         <v>21</v>
@@ -33807,12 +33807,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="421" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A421" s="1">
         <v>420</v>
       </c>
       <c r="B421" s="2" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C421" s="2" t="s">
         <v>111</v>
@@ -33821,7 +33821,7 @@
         <v>47</v>
       </c>
       <c r="E421" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F421" s="2">
         <v>24</v>
@@ -33881,12 +33881,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="422" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A422" s="1">
         <v>421</v>
       </c>
       <c r="B422" s="2" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C422" s="2" t="s">
         <v>23</v>
@@ -33955,12 +33955,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="423" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A423" s="1">
         <v>422</v>
       </c>
       <c r="B423" s="2" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C423" s="2" t="s">
         <v>23</v>
@@ -34029,12 +34029,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="424" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A424" s="1">
         <v>423</v>
       </c>
       <c r="B424" s="2" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C424" s="2" t="s">
         <v>107</v>
@@ -34103,12 +34103,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="425" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A425" s="1">
         <v>424</v>
       </c>
       <c r="B425" s="2" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C425" s="2" t="s">
         <v>23</v>
@@ -34177,12 +34177,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="426" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A426" s="1">
         <v>425</v>
       </c>
       <c r="B426" s="2" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C426" s="2" t="s">
         <v>74</v>
@@ -34251,18 +34251,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="427" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A427" s="1">
         <v>426</v>
       </c>
       <c r="B427" s="2" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C427" s="2" t="s">
         <v>89</v>
       </c>
       <c r="D427" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E427" s="2" t="s">
         <v>39</v>
@@ -34325,15 +34325,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="428" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A428" s="1">
         <v>427</v>
       </c>
       <c r="B428" s="2" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C428" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D428" s="2" t="s">
         <v>83</v>
@@ -34399,12 +34399,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="429" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A429" s="1">
         <v>428</v>
       </c>
       <c r="B429" s="2" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C429" s="2" t="s">
         <v>62</v>
@@ -34473,12 +34473,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="430" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A430" s="1">
         <v>429</v>
       </c>
       <c r="B430" s="2" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C430" s="2" t="s">
         <v>31</v>
@@ -34547,15 +34547,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="431" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A431" s="1">
         <v>430</v>
       </c>
       <c r="B431" s="2" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C431" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D431" s="2" t="s">
         <v>75</v>
@@ -34621,12 +34621,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="432" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A432" s="1">
         <v>431</v>
       </c>
       <c r="B432" s="2" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C432" s="2" t="s">
         <v>23</v>
@@ -34695,12 +34695,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="433" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A433" s="1">
         <v>432</v>
       </c>
       <c r="B433" s="2" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C433" s="2" t="s">
         <v>23</v>
@@ -34769,12 +34769,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="434" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A434" s="1">
         <v>433</v>
       </c>
       <c r="B434" s="2" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C434" s="2" t="s">
         <v>23</v>
@@ -34843,12 +34843,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="435" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A435" s="1">
         <v>434</v>
       </c>
       <c r="B435" s="2" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C435" s="2" t="s">
         <v>23</v>
@@ -34917,15 +34917,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="436" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A436" s="1">
         <v>435</v>
       </c>
       <c r="B436" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C436" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D436" s="2" t="s">
         <v>75</v>
@@ -34991,12 +34991,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="437" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A437" s="1">
         <v>436</v>
       </c>
       <c r="B437" s="2" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C437" s="2" t="s">
         <v>59</v>
@@ -35065,12 +35065,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="438" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A438" s="1">
         <v>437</v>
       </c>
       <c r="B438" s="2" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C438" s="2" t="s">
         <v>102</v>
@@ -35139,12 +35139,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="439" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A439" s="1">
         <v>438</v>
       </c>
       <c r="B439" s="2" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C439" s="2" t="s">
         <v>107</v>
@@ -35213,12 +35213,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="440" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A440" s="1">
         <v>439</v>
       </c>
       <c r="B440" s="2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C440" s="2" t="s">
         <v>23</v>
@@ -35287,15 +35287,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="441" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A441" s="1">
         <v>440</v>
       </c>
       <c r="B441" s="2" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C441" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D441" s="2" t="s">
         <v>47</v>
@@ -35361,15 +35361,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="442" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A442" s="1">
         <v>441</v>
       </c>
       <c r="B442" s="2" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C442" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D442" s="2" t="s">
         <v>50</v>
@@ -35435,12 +35435,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="443" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A443" s="1">
         <v>442</v>
       </c>
       <c r="B443" s="2" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C443" s="2" t="s">
         <v>31</v>
@@ -35509,12 +35509,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="444" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A444" s="1">
         <v>443</v>
       </c>
       <c r="B444" s="2" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C444" s="2" t="s">
         <v>23</v>
@@ -35583,12 +35583,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="445" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A445" s="1">
         <v>444</v>
       </c>
       <c r="B445" s="2" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C445" s="2" t="s">
         <v>31</v>
@@ -35657,12 +35657,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="446" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A446" s="1">
         <v>445</v>
       </c>
       <c r="B446" s="2" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C446" s="2" t="s">
         <v>23</v>
@@ -35731,12 +35731,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="447" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A447" s="1">
         <v>446</v>
       </c>
       <c r="B447" s="2" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C447" s="2" t="s">
         <v>23</v>
@@ -35805,12 +35805,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="448" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A448" s="1">
         <v>447</v>
       </c>
       <c r="B448" s="2" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C448" s="2" t="s">
         <v>23</v>
@@ -35879,12 +35879,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="449" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A449" s="1">
         <v>448</v>
       </c>
       <c r="B449" s="2" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C449" s="2" t="s">
         <v>23</v>
@@ -35953,12 +35953,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="450" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A450" s="1">
         <v>449</v>
       </c>
       <c r="B450" s="2" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C450" s="2" t="s">
         <v>23</v>
@@ -36027,15 +36027,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="451" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A451" s="1">
         <v>450</v>
       </c>
       <c r="B451" s="2" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C451" s="2" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D451" s="2" t="s">
         <v>47</v>
@@ -36101,12 +36101,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="452" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A452" s="1">
         <v>451</v>
       </c>
       <c r="B452" s="2" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C452" s="2" t="s">
         <v>23</v>
@@ -36175,12 +36175,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="453" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A453" s="1">
         <v>452</v>
       </c>
       <c r="B453" s="2" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C453" s="2" t="s">
         <v>23</v>
@@ -36249,18 +36249,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="454" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A454" s="1">
         <v>453</v>
       </c>
       <c r="B454" s="2" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C454" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D454" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E454" s="2" t="s">
         <v>36</v>
@@ -36323,12 +36323,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="455" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A455" s="1">
         <v>454</v>
       </c>
       <c r="B455" s="2" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C455" s="2" t="s">
         <v>23</v>
@@ -36397,12 +36397,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="456" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A456" s="1">
         <v>455</v>
       </c>
       <c r="B456" s="2" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C456" s="2" t="s">
         <v>74</v>
@@ -36471,12 +36471,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="457" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A457" s="1">
         <v>456</v>
       </c>
       <c r="B457" s="2" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C457" s="2" t="s">
         <v>23</v>
@@ -36485,7 +36485,7 @@
         <v>20</v>
       </c>
       <c r="E457" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F457" s="2">
         <v>17</v>
@@ -36545,12 +36545,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="458" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A458" s="1">
         <v>457</v>
       </c>
       <c r="B458" s="2" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C458" s="2" t="s">
         <v>23</v>
@@ -36619,12 +36619,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="459" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A459" s="1">
         <v>458</v>
       </c>
       <c r="B459" s="2" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C459" s="2" t="s">
         <v>23</v>
@@ -36633,7 +36633,7 @@
         <v>50</v>
       </c>
       <c r="E459" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F459" s="2">
         <v>19</v>
@@ -36693,18 +36693,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="460" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A460" s="1">
         <v>459</v>
       </c>
       <c r="B460" s="2" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C460" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D460" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E460" s="2" t="s">
         <v>60</v>
@@ -36767,12 +36767,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="461" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A461" s="1">
         <v>460</v>
       </c>
       <c r="B461" s="2" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C461" s="2" t="s">
         <v>23</v>
@@ -36841,12 +36841,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="462" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A462" s="1">
         <v>461</v>
       </c>
       <c r="B462" s="2" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C462" s="2" t="s">
         <v>23</v>
@@ -36915,12 +36915,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="463" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A463" s="1">
         <v>462</v>
       </c>
       <c r="B463" s="2" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C463" s="2" t="s">
         <v>74</v>
@@ -36989,12 +36989,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="464" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A464" s="1">
         <v>463</v>
       </c>
       <c r="B464" s="2" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C464" s="2" t="s">
         <v>23</v>
@@ -37003,7 +37003,7 @@
         <v>50</v>
       </c>
       <c r="E464" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F464" s="2">
         <v>33</v>
@@ -37063,12 +37063,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="465" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A465" s="1">
         <v>464</v>
       </c>
       <c r="B465" s="2" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C465" s="2" t="s">
         <v>23</v>
@@ -37137,12 +37137,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="466" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A466" s="1">
         <v>465</v>
       </c>
       <c r="B466" s="2" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C466" s="2" t="s">
         <v>23</v>
@@ -37211,12 +37211,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="467" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A467" s="1">
         <v>466</v>
       </c>
       <c r="B467" s="2" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C467" s="2" t="s">
         <v>23</v>
@@ -37285,15 +37285,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="468" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A468" s="1">
         <v>467</v>
       </c>
       <c r="B468" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="C468" s="2" t="s">
         <v>571</v>
-      </c>
-      <c r="C468" s="2" t="s">
-        <v>572</v>
       </c>
       <c r="D468" s="2" t="s">
         <v>75</v>
@@ -37359,12 +37359,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="469" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A469" s="1">
         <v>468</v>
       </c>
       <c r="B469" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C469" s="2" t="s">
         <v>31</v>
@@ -37433,12 +37433,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="470" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A470" s="1">
         <v>469</v>
       </c>
       <c r="B470" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C470" s="2" t="s">
         <v>31</v>
@@ -37507,15 +37507,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="471" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A471" s="1">
         <v>470</v>
       </c>
       <c r="B471" s="2" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C471" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D471" s="2" t="s">
         <v>20</v>
@@ -37581,12 +37581,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="472" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A472" s="1">
         <v>471</v>
       </c>
       <c r="B472" s="2" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C472" s="2" t="s">
         <v>23</v>
@@ -37655,15 +37655,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="473" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A473" s="1">
         <v>472</v>
       </c>
       <c r="B473" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="C473" s="2" t="s">
         <v>577</v>
-      </c>
-      <c r="C473" s="2" t="s">
-        <v>578</v>
       </c>
       <c r="D473" s="2" t="s">
         <v>20</v>
@@ -37729,12 +37729,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="474" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A474" s="1">
         <v>473</v>
       </c>
       <c r="B474" s="2" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C474" s="2" t="s">
         <v>23</v>
@@ -37803,12 +37803,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="475" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A475" s="1">
         <v>474</v>
       </c>
       <c r="B475" s="2" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C475" s="2" t="s">
         <v>23</v>
@@ -37877,12 +37877,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="476" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A476" s="1">
         <v>475</v>
       </c>
       <c r="B476" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C476" s="2" t="s">
         <v>23</v>
@@ -37951,15 +37951,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="477" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A477" s="1">
         <v>476</v>
       </c>
       <c r="B477" s="2" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C477" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D477" s="2" t="s">
         <v>50</v>
@@ -38025,18 +38025,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="478" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A478" s="1">
         <v>477</v>
       </c>
       <c r="B478" s="2" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C478" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D478" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E478" s="2" t="s">
         <v>103</v>
@@ -38099,12 +38099,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="479" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A479" s="1">
         <v>478</v>
       </c>
       <c r="B479" s="2" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C479" s="2" t="s">
         <v>23</v>
@@ -38113,7 +38113,7 @@
         <v>50</v>
       </c>
       <c r="E479" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F479" s="2">
         <v>28</v>
@@ -38173,12 +38173,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="480" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A480" s="1">
         <v>479</v>
       </c>
       <c r="B480" s="2" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C480" s="2" t="s">
         <v>23</v>
@@ -38247,15 +38247,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="481" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A481" s="1">
         <v>480</v>
       </c>
       <c r="B481" s="2" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C481" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D481" s="2" t="s">
         <v>20</v>
@@ -38321,12 +38321,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="482" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A482" s="1">
         <v>481</v>
       </c>
       <c r="B482" s="2" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="C482" s="2" t="s">
         <v>23</v>
@@ -38395,12 +38395,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="483" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A483" s="1">
         <v>482</v>
       </c>
       <c r="B483" s="2" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="C483" s="2" t="s">
         <v>23</v>
@@ -38469,12 +38469,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="484" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A484" s="1">
         <v>483</v>
       </c>
       <c r="B484" s="2" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C484" s="2" t="s">
         <v>23</v>
@@ -38543,12 +38543,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="485" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A485" s="1">
         <v>484</v>
       </c>
       <c r="B485" s="2" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="C485" s="2" t="s">
         <v>46</v>
@@ -38617,15 +38617,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="486" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A486" s="1">
         <v>485</v>
       </c>
       <c r="B486" s="2" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C486" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D486" s="2" t="s">
         <v>75</v>
@@ -38691,12 +38691,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="487" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A487" s="1">
         <v>486</v>
       </c>
       <c r="B487" s="2" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C487" s="2" t="s">
         <v>23</v>
@@ -38765,12 +38765,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="488" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A488" s="1">
         <v>487</v>
       </c>
       <c r="B488" s="2" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C488" s="2" t="s">
         <v>89</v>
@@ -38839,15 +38839,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="489" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A489" s="1">
         <v>488</v>
       </c>
       <c r="B489" s="2" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C489" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D489" s="2" t="s">
         <v>24</v>
@@ -38913,7 +38913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="490" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A490" s="1">
         <v>489</v>
       </c>
@@ -38987,12 +38987,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="491" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A491" s="1">
         <v>490</v>
       </c>
       <c r="B491" s="2" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C491" s="2" t="s">
         <v>105</v>
@@ -39061,12 +39061,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="492" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A492" s="1">
         <v>491</v>
       </c>
       <c r="B492" s="2" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C492" s="2" t="s">
         <v>23</v>
@@ -39135,12 +39135,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="493" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A493" s="1">
         <v>492</v>
       </c>
       <c r="B493" s="2" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C493" s="2" t="s">
         <v>23</v>
@@ -39209,12 +39209,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="494" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A494" s="1">
         <v>493</v>
       </c>
       <c r="B494" s="2" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C494" s="2" t="s">
         <v>23</v>
@@ -39283,12 +39283,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="495" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A495" s="1">
         <v>494</v>
       </c>
       <c r="B495" s="2" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="C495" s="2" t="s">
         <v>23</v>
@@ -39357,12 +39357,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="496" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A496" s="1">
         <v>495</v>
       </c>
       <c r="B496" s="2" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="C496" s="2" t="s">
         <v>23</v>
@@ -39431,12 +39431,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="497" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A497" s="1">
         <v>496</v>
       </c>
       <c r="B497" s="2" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="C497" s="2" t="s">
         <v>33</v>
@@ -39505,12 +39505,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="498" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A498" s="1">
         <v>497</v>
       </c>
       <c r="B498" s="2" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="C498" s="2" t="s">
         <v>23</v>
@@ -39579,12 +39579,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="499" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A499" s="1">
         <v>498</v>
       </c>
       <c r="B499" s="2" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="C499" s="2" t="s">
         <v>23</v>
@@ -39653,15 +39653,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="500" spans="1:24" ht="16" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A500" s="1">
         <v>499</v>
       </c>
       <c r="B500" s="2" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C500" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D500" s="2" t="s">
         <v>20</v>
@@ -39727,7 +39727,6 @@
         <v>0</v>
       </c>
     </row>
-    <row r="501" spans="1:24" ht="12" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/league_data/france/19/france_shot_creation.xlsx
+++ b/data/league_data/france/19/france_shot_creation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sanjitvarma/Desktop/trial_git/Predicting-Football-Player-Transfer-Values/data/league_data/france/19/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{112C52DB-0B1E-3940-8C73-C9FBBF7B4890}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4BE720A-5E7B-524C-919C-B6B52DFE3656}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -862,9 +862,6 @@
     <t>Fouad Chafik</t>
   </si>
   <si>
-    <t>Manu García</t>
-  </si>
-  <si>
     <t>Rony Lopes</t>
   </si>
   <si>
@@ -1255,9 +1252,6 @@
     <t>Jean-Victor Makengo</t>
   </si>
   <si>
-    <t>Rafael</t>
-  </si>
-  <si>
     <t>Thiago Maia</t>
   </si>
   <si>
@@ -1832,6 +1826,12 @@
   </si>
   <si>
     <t>Marcelo Filho</t>
+  </si>
+  <si>
+    <t>Rafael da Silva</t>
+  </si>
+  <si>
+    <t>Manu García Alonso</t>
   </si>
 </sst>
 </file>
@@ -2695,8 +2695,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X500"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="B59" sqref="B59"/>
+    <sheetView tabSelected="1" topLeftCell="A178" workbookViewId="0">
+      <selection activeCell="B193" sqref="B193"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7024,7 +7024,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>62</v>
@@ -16940,7 +16940,7 @@
         <v>192</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>280</v>
+        <v>603</v>
       </c>
       <c r="C193" s="2" t="s">
         <v>257</v>
@@ -17014,7 +17014,7 @@
         <v>193</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C194" s="2" t="s">
         <v>59</v>
@@ -17088,7 +17088,7 @@
         <v>194</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C195" s="2" t="s">
         <v>257</v>
@@ -17162,7 +17162,7 @@
         <v>195</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C196" s="2" t="s">
         <v>23</v>
@@ -17236,10 +17236,10 @@
         <v>196</v>
       </c>
       <c r="B197" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="C197" s="2" t="s">
         <v>284</v>
-      </c>
-      <c r="C197" s="2" t="s">
-        <v>285</v>
       </c>
       <c r="D197" s="2" t="s">
         <v>47</v>
@@ -17310,7 +17310,7 @@
         <v>197</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C198" s="2" t="s">
         <v>243</v>
@@ -17384,7 +17384,7 @@
         <v>198</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C199" s="2" t="s">
         <v>46</v>
@@ -17458,7 +17458,7 @@
         <v>199</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C200" s="2" t="s">
         <v>23</v>
@@ -17532,7 +17532,7 @@
         <v>200</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C201" s="2" t="s">
         <v>23</v>
@@ -17606,7 +17606,7 @@
         <v>201</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C202" s="2" t="s">
         <v>23</v>
@@ -17680,7 +17680,7 @@
         <v>202</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C203" s="2" t="s">
         <v>23</v>
@@ -17754,7 +17754,7 @@
         <v>203</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C204" s="2" t="s">
         <v>31</v>
@@ -17828,7 +17828,7 @@
         <v>204</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C205" s="2" t="s">
         <v>264</v>
@@ -17902,7 +17902,7 @@
         <v>205</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C206" s="2" t="s">
         <v>23</v>
@@ -17976,7 +17976,7 @@
         <v>206</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C207" s="2" t="s">
         <v>23</v>
@@ -18050,7 +18050,7 @@
         <v>207</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C208" s="2" t="s">
         <v>107</v>
@@ -18124,7 +18124,7 @@
         <v>208</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C209" s="2" t="s">
         <v>23</v>
@@ -18198,7 +18198,7 @@
         <v>209</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C210" s="2" t="s">
         <v>23</v>
@@ -18272,7 +18272,7 @@
         <v>210</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C211" s="2" t="s">
         <v>23</v>
@@ -18346,10 +18346,10 @@
         <v>211</v>
       </c>
       <c r="B212" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="C212" s="2" t="s">
         <v>300</v>
-      </c>
-      <c r="C212" s="2" t="s">
-        <v>301</v>
       </c>
       <c r="D212" s="2" t="s">
         <v>20</v>
@@ -18420,7 +18420,7 @@
         <v>212</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C213" s="2" t="s">
         <v>107</v>
@@ -18494,7 +18494,7 @@
         <v>213</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C214" s="2" t="s">
         <v>43</v>
@@ -18568,10 +18568,10 @@
         <v>214</v>
       </c>
       <c r="B215" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="C215" s="2" t="s">
         <v>304</v>
-      </c>
-      <c r="C215" s="2" t="s">
-        <v>305</v>
       </c>
       <c r="D215" s="2" t="s">
         <v>75</v>
@@ -18642,7 +18642,7 @@
         <v>215</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C216" s="2" t="s">
         <v>23</v>
@@ -18716,10 +18716,10 @@
         <v>216</v>
       </c>
       <c r="B217" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="C217" s="2" t="s">
         <v>307</v>
-      </c>
-      <c r="C217" s="2" t="s">
-        <v>308</v>
       </c>
       <c r="D217" s="2" t="s">
         <v>50</v>
@@ -18790,10 +18790,10 @@
         <v>217</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D218" s="2" t="s">
         <v>95</v>
@@ -18864,7 +18864,7 @@
         <v>218</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C219" s="2" t="s">
         <v>23</v>
@@ -18938,7 +18938,7 @@
         <v>219</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C220" s="2" t="s">
         <v>62</v>
@@ -19012,7 +19012,7 @@
         <v>220</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C221" s="2" t="s">
         <v>200</v>
@@ -19086,7 +19086,7 @@
         <v>221</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C222" s="2" t="s">
         <v>43</v>
@@ -19160,7 +19160,7 @@
         <v>222</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C223" s="2" t="s">
         <v>107</v>
@@ -19234,7 +19234,7 @@
         <v>223</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C224" s="2" t="s">
         <v>23</v>
@@ -19308,7 +19308,7 @@
         <v>224</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C225" s="2" t="s">
         <v>31</v>
@@ -19382,7 +19382,7 @@
         <v>225</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C226" s="2" t="s">
         <v>31</v>
@@ -19456,7 +19456,7 @@
         <v>226</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C227" s="2" t="s">
         <v>23</v>
@@ -19530,7 +19530,7 @@
         <v>227</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C228" s="2" t="s">
         <v>23</v>
@@ -19604,7 +19604,7 @@
         <v>228</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C229" s="2" t="s">
         <v>23</v>
@@ -19678,7 +19678,7 @@
         <v>229</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C230" s="2" t="s">
         <v>62</v>
@@ -19752,10 +19752,10 @@
         <v>230</v>
       </c>
       <c r="B231" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="C231" s="2" t="s">
         <v>321</v>
-      </c>
-      <c r="C231" s="2" t="s">
-        <v>322</v>
       </c>
       <c r="D231" s="2" t="s">
         <v>20</v>
@@ -19826,7 +19826,7 @@
         <v>231</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C232" s="2" t="s">
         <v>23</v>
@@ -19900,10 +19900,10 @@
         <v>232</v>
       </c>
       <c r="B233" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="C233" s="2" t="s">
         <v>324</v>
-      </c>
-      <c r="C233" s="2" t="s">
-        <v>325</v>
       </c>
       <c r="D233" s="2" t="s">
         <v>75</v>
@@ -19974,7 +19974,7 @@
         <v>233</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C234" s="2" t="s">
         <v>274</v>
@@ -20048,7 +20048,7 @@
         <v>234</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C235" s="2" t="s">
         <v>105</v>
@@ -20122,7 +20122,7 @@
         <v>235</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C236" s="2" t="s">
         <v>107</v>
@@ -20196,10 +20196,10 @@
         <v>236</v>
       </c>
       <c r="B237" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="C237" s="2" t="s">
         <v>329</v>
-      </c>
-      <c r="C237" s="2" t="s">
-        <v>330</v>
       </c>
       <c r="D237" s="2" t="s">
         <v>75</v>
@@ -20270,7 +20270,7 @@
         <v>237</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C238" s="2" t="s">
         <v>23</v>
@@ -20344,7 +20344,7 @@
         <v>238</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C239" s="2" t="s">
         <v>23</v>
@@ -20418,7 +20418,7 @@
         <v>239</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C240" s="2" t="s">
         <v>62</v>
@@ -20492,10 +20492,10 @@
         <v>240</v>
       </c>
       <c r="B241" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="C241" s="2" t="s">
         <v>334</v>
-      </c>
-      <c r="C241" s="2" t="s">
-        <v>335</v>
       </c>
       <c r="D241" s="2" t="s">
         <v>20</v>
@@ -20566,7 +20566,7 @@
         <v>241</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C242" s="2" t="s">
         <v>31</v>
@@ -20640,7 +20640,7 @@
         <v>242</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C243" s="2" t="s">
         <v>23</v>
@@ -20714,7 +20714,7 @@
         <v>243</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C244" s="2" t="s">
         <v>23</v>
@@ -20788,7 +20788,7 @@
         <v>244</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C245" s="2" t="s">
         <v>46</v>
@@ -20862,7 +20862,7 @@
         <v>245</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C246" s="2" t="s">
         <v>23</v>
@@ -20936,7 +20936,7 @@
         <v>246</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C247" s="2" t="s">
         <v>43</v>
@@ -21010,7 +21010,7 @@
         <v>247</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C248" s="2" t="s">
         <v>62</v>
@@ -21084,7 +21084,7 @@
         <v>248</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C249" s="2" t="s">
         <v>116</v>
@@ -21158,7 +21158,7 @@
         <v>249</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C250" s="2" t="s">
         <v>23</v>
@@ -21232,7 +21232,7 @@
         <v>250</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C251" s="2" t="s">
         <v>62</v>
@@ -21306,7 +21306,7 @@
         <v>251</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C252" s="2" t="s">
         <v>23</v>
@@ -21380,7 +21380,7 @@
         <v>252</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C253" s="2" t="s">
         <v>59</v>
@@ -21454,7 +21454,7 @@
         <v>253</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C254" s="2" t="s">
         <v>89</v>
@@ -21528,7 +21528,7 @@
         <v>254</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C255" s="2" t="s">
         <v>71</v>
@@ -21602,7 +21602,7 @@
         <v>255</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C256" s="2" t="s">
         <v>113</v>
@@ -21676,7 +21676,7 @@
         <v>256</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C257" s="2" t="s">
         <v>78</v>
@@ -21750,7 +21750,7 @@
         <v>257</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C258" s="2" t="s">
         <v>23</v>
@@ -21824,7 +21824,7 @@
         <v>258</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C259" s="2" t="s">
         <v>111</v>
@@ -21898,10 +21898,10 @@
         <v>259</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C260" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D260" s="2" t="s">
         <v>50</v>
@@ -21972,7 +21972,7 @@
         <v>260</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C261" s="2" t="s">
         <v>23</v>
@@ -22046,7 +22046,7 @@
         <v>261</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C262" s="2" t="s">
         <v>62</v>
@@ -22120,7 +22120,7 @@
         <v>262</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C263" s="2" t="s">
         <v>46</v>
@@ -22194,10 +22194,10 @@
         <v>263</v>
       </c>
       <c r="B264" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="C264" s="2" t="s">
         <v>358</v>
-      </c>
-      <c r="C264" s="2" t="s">
-        <v>359</v>
       </c>
       <c r="D264" s="2" t="s">
         <v>50</v>
@@ -22268,7 +22268,7 @@
         <v>264</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C265" s="2" t="s">
         <v>59</v>
@@ -22342,7 +22342,7 @@
         <v>265</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C266" s="2" t="s">
         <v>23</v>
@@ -22416,7 +22416,7 @@
         <v>266</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C267" s="2" t="s">
         <v>46</v>
@@ -22490,7 +22490,7 @@
         <v>267</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C268" s="2" t="s">
         <v>62</v>
@@ -22564,7 +22564,7 @@
         <v>268</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C269" s="2" t="s">
         <v>23</v>
@@ -22638,10 +22638,10 @@
         <v>269</v>
       </c>
       <c r="B270" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="C270" s="2" t="s">
         <v>365</v>
-      </c>
-      <c r="C270" s="2" t="s">
-        <v>366</v>
       </c>
       <c r="D270" s="2" t="s">
         <v>75</v>
@@ -22712,7 +22712,7 @@
         <v>270</v>
       </c>
       <c r="B271" s="2" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C271" s="2" t="s">
         <v>23</v>
@@ -22786,7 +22786,7 @@
         <v>271</v>
       </c>
       <c r="B272" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C272" s="2" t="s">
         <v>23</v>
@@ -22860,7 +22860,7 @@
         <v>272</v>
       </c>
       <c r="B273" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C273" s="2" t="s">
         <v>23</v>
@@ -22934,7 +22934,7 @@
         <v>273</v>
       </c>
       <c r="B274" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C274" s="2" t="s">
         <v>141</v>
@@ -23008,7 +23008,7 @@
         <v>274</v>
       </c>
       <c r="B275" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C275" s="2" t="s">
         <v>23</v>
@@ -23082,7 +23082,7 @@
         <v>275</v>
       </c>
       <c r="B276" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C276" s="2" t="s">
         <v>19</v>
@@ -23156,7 +23156,7 @@
         <v>276</v>
       </c>
       <c r="B277" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C277" s="2" t="s">
         <v>71</v>
@@ -23230,7 +23230,7 @@
         <v>277</v>
       </c>
       <c r="B278" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C278" s="2" t="s">
         <v>23</v>
@@ -23304,7 +23304,7 @@
         <v>278</v>
       </c>
       <c r="B279" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C279" s="2" t="s">
         <v>23</v>
@@ -23378,7 +23378,7 @@
         <v>279</v>
       </c>
       <c r="B280" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C280" s="2" t="s">
         <v>99</v>
@@ -23452,7 +23452,7 @@
         <v>280</v>
       </c>
       <c r="B281" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C281" s="2" t="s">
         <v>43</v>
@@ -23526,7 +23526,7 @@
         <v>281</v>
       </c>
       <c r="B282" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C282" s="2" t="s">
         <v>23</v>
@@ -23600,7 +23600,7 @@
         <v>282</v>
       </c>
       <c r="B283" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C283" s="2" t="s">
         <v>111</v>
@@ -23674,7 +23674,7 @@
         <v>283</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C284" s="2" t="s">
         <v>74</v>
@@ -23748,7 +23748,7 @@
         <v>284</v>
       </c>
       <c r="B285" s="2" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C285" s="2" t="s">
         <v>23</v>
@@ -23822,7 +23822,7 @@
         <v>285</v>
       </c>
       <c r="B286" s="2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C286" s="2" t="s">
         <v>23</v>
@@ -23896,7 +23896,7 @@
         <v>286</v>
       </c>
       <c r="B287" s="2" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C287" s="2" t="s">
         <v>59</v>
@@ -23970,10 +23970,10 @@
         <v>287</v>
       </c>
       <c r="B288" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="C288" s="2" t="s">
         <v>384</v>
-      </c>
-      <c r="C288" s="2" t="s">
-        <v>385</v>
       </c>
       <c r="D288" s="2" t="s">
         <v>75</v>
@@ -24044,7 +24044,7 @@
         <v>288</v>
       </c>
       <c r="B289" s="2" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C289" s="2" t="s">
         <v>43</v>
@@ -24118,7 +24118,7 @@
         <v>289</v>
       </c>
       <c r="B290" s="2" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C290" s="2" t="s">
         <v>23</v>
@@ -24192,7 +24192,7 @@
         <v>290</v>
       </c>
       <c r="B291" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C291" s="2" t="s">
         <v>107</v>
@@ -24266,7 +24266,7 @@
         <v>291</v>
       </c>
       <c r="B292" s="2" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C292" s="2" t="s">
         <v>23</v>
@@ -24340,7 +24340,7 @@
         <v>292</v>
       </c>
       <c r="B293" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C293" s="2" t="s">
         <v>23</v>
@@ -24414,10 +24414,10 @@
         <v>293</v>
       </c>
       <c r="B294" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C294" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D294" s="2" t="s">
         <v>24</v>
@@ -24488,7 +24488,7 @@
         <v>294</v>
       </c>
       <c r="B295" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C295" s="2" t="s">
         <v>252</v>
@@ -24562,7 +24562,7 @@
         <v>295</v>
       </c>
       <c r="B296" s="2" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C296" s="2" t="s">
         <v>23</v>
@@ -24636,7 +24636,7 @@
         <v>296</v>
       </c>
       <c r="B297" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C297" s="2" t="s">
         <v>23</v>
@@ -24710,7 +24710,7 @@
         <v>297</v>
       </c>
       <c r="B298" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C298" s="2" t="s">
         <v>23</v>
@@ -24784,7 +24784,7 @@
         <v>298</v>
       </c>
       <c r="B299" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C299" s="2" t="s">
         <v>46</v>
@@ -24858,7 +24858,7 @@
         <v>299</v>
       </c>
       <c r="B300" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C300" s="2" t="s">
         <v>19</v>
@@ -24932,7 +24932,7 @@
         <v>300</v>
       </c>
       <c r="B301" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C301" s="2" t="s">
         <v>23</v>
@@ -25006,7 +25006,7 @@
         <v>301</v>
       </c>
       <c r="B302" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C302" s="2" t="s">
         <v>62</v>
@@ -25080,7 +25080,7 @@
         <v>302</v>
       </c>
       <c r="B303" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C303" s="2" t="s">
         <v>23</v>
@@ -25154,10 +25154,10 @@
         <v>303</v>
       </c>
       <c r="B304" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="C304" s="2" t="s">
         <v>401</v>
-      </c>
-      <c r="C304" s="2" t="s">
-        <v>402</v>
       </c>
       <c r="D304" s="2" t="s">
         <v>20</v>
@@ -25228,7 +25228,7 @@
         <v>304</v>
       </c>
       <c r="B305" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C305" s="2" t="s">
         <v>23</v>
@@ -25302,7 +25302,7 @@
         <v>305</v>
       </c>
       <c r="B306" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C306" s="2" t="s">
         <v>19</v>
@@ -25376,10 +25376,10 @@
         <v>306</v>
       </c>
       <c r="B307" s="2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C307" s="2" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D307" s="2" t="s">
         <v>50</v>
@@ -25450,7 +25450,7 @@
         <v>307</v>
       </c>
       <c r="B308" s="2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C308" s="2" t="s">
         <v>23</v>
@@ -25524,7 +25524,7 @@
         <v>308</v>
       </c>
       <c r="B309" s="2" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C309" s="2" t="s">
         <v>178</v>
@@ -25598,7 +25598,7 @@
         <v>309</v>
       </c>
       <c r="B310" s="2" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C310" s="2" t="s">
         <v>141</v>
@@ -25672,7 +25672,7 @@
         <v>310</v>
       </c>
       <c r="B311" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C311" s="2" t="s">
         <v>111</v>
@@ -25746,7 +25746,7 @@
         <v>311</v>
       </c>
       <c r="B312" s="2" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C312" s="2" t="s">
         <v>23</v>
@@ -25820,7 +25820,7 @@
         <v>312</v>
       </c>
       <c r="B313" s="2" t="s">
-        <v>411</v>
+        <v>602</v>
       </c>
       <c r="C313" s="2" t="s">
         <v>62</v>
@@ -25894,7 +25894,7 @@
         <v>313</v>
       </c>
       <c r="B314" s="2" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C314" s="2" t="s">
         <v>62</v>
@@ -25968,7 +25968,7 @@
         <v>314</v>
       </c>
       <c r="B315" s="2" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C315" s="2" t="s">
         <v>23</v>
@@ -26042,10 +26042,10 @@
         <v>315</v>
       </c>
       <c r="B316" s="2" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="C316" s="2" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="D316" s="2" t="s">
         <v>50</v>
@@ -26116,7 +26116,7 @@
         <v>316</v>
       </c>
       <c r="B317" s="2" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C317" s="2" t="s">
         <v>23</v>
@@ -26190,7 +26190,7 @@
         <v>317</v>
       </c>
       <c r="B318" s="2" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C318" s="2" t="s">
         <v>257</v>
@@ -26264,7 +26264,7 @@
         <v>318</v>
       </c>
       <c r="B319" s="2" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C319" s="2" t="s">
         <v>138</v>
@@ -26338,7 +26338,7 @@
         <v>319</v>
       </c>
       <c r="B320" s="2" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="C320" s="2" t="s">
         <v>23</v>
@@ -26412,7 +26412,7 @@
         <v>320</v>
       </c>
       <c r="B321" s="2" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C321" s="2" t="s">
         <v>23</v>
@@ -26486,7 +26486,7 @@
         <v>321</v>
       </c>
       <c r="B322" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C322" s="2" t="s">
         <v>19</v>
@@ -26560,7 +26560,7 @@
         <v>322</v>
       </c>
       <c r="B323" s="2" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="C323" s="2" t="s">
         <v>274</v>
@@ -26634,10 +26634,10 @@
         <v>323</v>
       </c>
       <c r="B324" s="2" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="C324" s="2" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="D324" s="2" t="s">
         <v>47</v>
@@ -26708,7 +26708,7 @@
         <v>324</v>
       </c>
       <c r="B325" s="2" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="C325" s="2" t="s">
         <v>23</v>
@@ -26782,7 +26782,7 @@
         <v>325</v>
       </c>
       <c r="B326" s="2" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="C326" s="2" t="s">
         <v>19</v>
@@ -26856,7 +26856,7 @@
         <v>326</v>
       </c>
       <c r="B327" s="2" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="C327" s="2" t="s">
         <v>46</v>
@@ -26930,7 +26930,7 @@
         <v>327</v>
       </c>
       <c r="B328" s="2" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C328" s="2" t="s">
         <v>23</v>
@@ -27004,7 +27004,7 @@
         <v>328</v>
       </c>
       <c r="B329" s="2" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="C329" s="2" t="s">
         <v>23</v>
@@ -27078,7 +27078,7 @@
         <v>329</v>
       </c>
       <c r="B330" s="2" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="C330" s="2" t="s">
         <v>23</v>
@@ -27152,7 +27152,7 @@
         <v>330</v>
       </c>
       <c r="B331" s="2" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="C331" s="2" t="s">
         <v>23</v>
@@ -27226,7 +27226,7 @@
         <v>331</v>
       </c>
       <c r="B332" s="2" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="C332" s="2" t="s">
         <v>62</v>
@@ -27300,7 +27300,7 @@
         <v>332</v>
       </c>
       <c r="B333" s="2" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="C333" s="2" t="s">
         <v>23</v>
@@ -27374,7 +27374,7 @@
         <v>333</v>
       </c>
       <c r="B334" s="2" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C334" s="2" t="s">
         <v>23</v>
@@ -27448,7 +27448,7 @@
         <v>334</v>
       </c>
       <c r="B335" s="2" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="C335" s="2" t="s">
         <v>23</v>
@@ -27522,7 +27522,7 @@
         <v>335</v>
       </c>
       <c r="B336" s="2" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="C336" s="2" t="s">
         <v>23</v>
@@ -27596,7 +27596,7 @@
         <v>336</v>
       </c>
       <c r="B337" s="2" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="C337" s="2" t="s">
         <v>23</v>
@@ -27670,7 +27670,7 @@
         <v>337</v>
       </c>
       <c r="B338" s="2" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="C338" s="2" t="s">
         <v>23</v>
@@ -27744,7 +27744,7 @@
         <v>338</v>
       </c>
       <c r="B339" s="2" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="C339" s="2" t="s">
         <v>78</v>
@@ -27818,10 +27818,10 @@
         <v>339</v>
       </c>
       <c r="B340" s="2" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="C340" s="2" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D340" s="2" t="s">
         <v>47</v>
@@ -27892,7 +27892,7 @@
         <v>340</v>
       </c>
       <c r="B341" s="2" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="C341" s="2" t="s">
         <v>111</v>
@@ -27966,7 +27966,7 @@
         <v>341</v>
       </c>
       <c r="B342" s="2" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="C342" s="2" t="s">
         <v>59</v>
@@ -28040,10 +28040,10 @@
         <v>342</v>
       </c>
       <c r="B343" s="2" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C343" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D343" s="2" t="s">
         <v>75</v>
@@ -28114,10 +28114,10 @@
         <v>343</v>
       </c>
       <c r="B344" s="2" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C344" s="2" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="D344" s="2" t="s">
         <v>75</v>
@@ -28188,7 +28188,7 @@
         <v>344</v>
       </c>
       <c r="B345" s="2" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="C345" s="2" t="s">
         <v>23</v>
@@ -28262,7 +28262,7 @@
         <v>345</v>
       </c>
       <c r="B346" s="2" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="C346" s="2" t="s">
         <v>62</v>
@@ -28336,7 +28336,7 @@
         <v>346</v>
       </c>
       <c r="B347" s="2" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="C347" s="2" t="s">
         <v>46</v>
@@ -28410,7 +28410,7 @@
         <v>347</v>
       </c>
       <c r="B348" s="2" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="C348" s="2" t="s">
         <v>59</v>
@@ -28484,10 +28484,10 @@
         <v>348</v>
       </c>
       <c r="B349" s="2" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="C349" s="2" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D349" s="2" t="s">
         <v>75</v>
@@ -28558,7 +28558,7 @@
         <v>349</v>
       </c>
       <c r="B350" s="2" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="C350" s="2" t="s">
         <v>23</v>
@@ -28632,7 +28632,7 @@
         <v>350</v>
       </c>
       <c r="B351" s="2" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="C351" s="2" t="s">
         <v>274</v>
@@ -28706,7 +28706,7 @@
         <v>351</v>
       </c>
       <c r="B352" s="2" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="C352" s="2" t="s">
         <v>31</v>
@@ -28780,7 +28780,7 @@
         <v>352</v>
       </c>
       <c r="B353" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="C353" s="2" t="s">
         <v>156</v>
@@ -28854,7 +28854,7 @@
         <v>353</v>
       </c>
       <c r="B354" s="2" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="C354" s="2" t="s">
         <v>23</v>
@@ -28928,7 +28928,7 @@
         <v>354</v>
       </c>
       <c r="B355" s="2" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="C355" s="2" t="s">
         <v>31</v>
@@ -29002,10 +29002,10 @@
         <v>355</v>
       </c>
       <c r="B356" s="2" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="C356" s="2" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="D356" s="2" t="s">
         <v>20</v>
@@ -29076,7 +29076,7 @@
         <v>356</v>
       </c>
       <c r="B357" s="2" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="C357" s="2" t="s">
         <v>43</v>
@@ -29150,7 +29150,7 @@
         <v>357</v>
       </c>
       <c r="B358" s="2" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="C358" s="2" t="s">
         <v>62</v>
@@ -29224,7 +29224,7 @@
         <v>358</v>
       </c>
       <c r="B359" s="2" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="C359" s="2" t="s">
         <v>23</v>
@@ -29298,10 +29298,10 @@
         <v>359</v>
       </c>
       <c r="B360" s="2" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="C360" s="2" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="D360" s="2" t="s">
         <v>20</v>
@@ -29372,10 +29372,10 @@
         <v>360</v>
       </c>
       <c r="B361" s="2" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="C361" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D361" s="2" t="s">
         <v>24</v>
@@ -29446,7 +29446,7 @@
         <v>361</v>
       </c>
       <c r="B362" s="2" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="C362" s="2" t="s">
         <v>105</v>
@@ -29520,7 +29520,7 @@
         <v>362</v>
       </c>
       <c r="B363" s="2" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C363" s="2" t="s">
         <v>23</v>
@@ -29594,7 +29594,7 @@
         <v>363</v>
       </c>
       <c r="B364" s="2" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="C364" s="2" t="s">
         <v>23</v>
@@ -29668,7 +29668,7 @@
         <v>364</v>
       </c>
       <c r="B365" s="2" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C365" s="2" t="s">
         <v>23</v>
@@ -29742,7 +29742,7 @@
         <v>365</v>
       </c>
       <c r="B366" s="2" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="C366" s="2" t="s">
         <v>43</v>
@@ -29816,7 +29816,7 @@
         <v>366</v>
       </c>
       <c r="B367" s="2" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="C367" s="2" t="s">
         <v>23</v>
@@ -29890,7 +29890,7 @@
         <v>367</v>
       </c>
       <c r="B368" s="2" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="C368" s="2" t="s">
         <v>89</v>
@@ -29964,7 +29964,7 @@
         <v>368</v>
       </c>
       <c r="B369" s="2" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C369" s="2" t="s">
         <v>23</v>
@@ -30038,7 +30038,7 @@
         <v>369</v>
       </c>
       <c r="B370" s="2" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="C370" s="2" t="s">
         <v>164</v>
@@ -30112,7 +30112,7 @@
         <v>370</v>
       </c>
       <c r="B371" s="2" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="C371" s="2" t="s">
         <v>23</v>
@@ -30186,7 +30186,7 @@
         <v>371</v>
       </c>
       <c r="B372" s="2" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="C372" s="2" t="s">
         <v>59</v>
@@ -30260,7 +30260,7 @@
         <v>372</v>
       </c>
       <c r="B373" s="2" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="C373" s="2" t="s">
         <v>23</v>
@@ -30334,7 +30334,7 @@
         <v>373</v>
       </c>
       <c r="B374" s="2" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="C374" s="2" t="s">
         <v>107</v>
@@ -30408,7 +30408,7 @@
         <v>374</v>
       </c>
       <c r="B375" s="2" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="C375" s="2" t="s">
         <v>23</v>
@@ -30482,10 +30482,10 @@
         <v>375</v>
       </c>
       <c r="B376" s="2" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="C376" s="2" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="D376" s="2" t="s">
         <v>75</v>
@@ -30556,7 +30556,7 @@
         <v>376</v>
       </c>
       <c r="B377" s="2" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="C377" s="2" t="s">
         <v>46</v>
@@ -30630,7 +30630,7 @@
         <v>377</v>
       </c>
       <c r="B378" s="2" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="C378" s="2" t="s">
         <v>89</v>
@@ -30704,7 +30704,7 @@
         <v>378</v>
       </c>
       <c r="B379" s="2" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="C379" s="2" t="s">
         <v>274</v>
@@ -30778,10 +30778,10 @@
         <v>379</v>
       </c>
       <c r="B380" s="2" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="C380" s="2" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="D380" s="2" t="s">
         <v>75</v>
@@ -30852,10 +30852,10 @@
         <v>380</v>
       </c>
       <c r="B381" s="2" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="C381" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D381" s="2" t="s">
         <v>20</v>
@@ -30926,10 +30926,10 @@
         <v>381</v>
       </c>
       <c r="B382" s="2" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="C382" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D382" s="2" t="s">
         <v>47</v>
@@ -31000,7 +31000,7 @@
         <v>382</v>
       </c>
       <c r="B383" s="2" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="C383" s="2" t="s">
         <v>23</v>
@@ -31074,10 +31074,10 @@
         <v>383</v>
       </c>
       <c r="B384" s="2" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="C384" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D384" s="2" t="s">
         <v>20</v>
@@ -31148,7 +31148,7 @@
         <v>384</v>
       </c>
       <c r="B385" s="2" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="C385" s="2" t="s">
         <v>19</v>
@@ -31222,7 +31222,7 @@
         <v>385</v>
       </c>
       <c r="B386" s="2" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C386" s="2" t="s">
         <v>23</v>
@@ -31296,7 +31296,7 @@
         <v>386</v>
       </c>
       <c r="B387" s="2" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="C387" s="2" t="s">
         <v>23</v>
@@ -31370,7 +31370,7 @@
         <v>387</v>
       </c>
       <c r="B388" s="2" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="C388" s="2" t="s">
         <v>62</v>
@@ -31444,7 +31444,7 @@
         <v>388</v>
       </c>
       <c r="B389" s="2" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="C389" s="2" t="s">
         <v>62</v>
@@ -31518,7 +31518,7 @@
         <v>389</v>
       </c>
       <c r="B390" s="2" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="C390" s="2" t="s">
         <v>31</v>
@@ -31592,7 +31592,7 @@
         <v>390</v>
       </c>
       <c r="B391" s="2" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="C391" s="2" t="s">
         <v>31</v>
@@ -31666,7 +31666,7 @@
         <v>391</v>
       </c>
       <c r="B392" s="2" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C392" s="2" t="s">
         <v>31</v>
@@ -31740,7 +31740,7 @@
         <v>392</v>
       </c>
       <c r="B393" s="2" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C393" s="2" t="s">
         <v>23</v>
@@ -31814,7 +31814,7 @@
         <v>393</v>
       </c>
       <c r="B394" s="2" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C394" s="2" t="s">
         <v>23</v>
@@ -31888,7 +31888,7 @@
         <v>394</v>
       </c>
       <c r="B395" s="2" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="C395" s="2" t="s">
         <v>274</v>
@@ -31962,7 +31962,7 @@
         <v>395</v>
       </c>
       <c r="B396" s="2" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="C396" s="2" t="s">
         <v>23</v>
@@ -32036,7 +32036,7 @@
         <v>396</v>
       </c>
       <c r="B397" s="2" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="C397" s="2" t="s">
         <v>23</v>
@@ -32110,10 +32110,10 @@
         <v>397</v>
       </c>
       <c r="B398" s="2" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="C398" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D398" s="2" t="s">
         <v>75</v>
@@ -32184,10 +32184,10 @@
         <v>398</v>
       </c>
       <c r="B399" s="2" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="C399" s="2" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="D399" s="2" t="s">
         <v>47</v>
@@ -32258,10 +32258,10 @@
         <v>399</v>
       </c>
       <c r="B400" s="2" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="C400" s="2" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D400" s="2" t="s">
         <v>50</v>
@@ -32332,7 +32332,7 @@
         <v>400</v>
       </c>
       <c r="B401" s="2" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="C401" s="2" t="s">
         <v>23</v>
@@ -32406,7 +32406,7 @@
         <v>401</v>
       </c>
       <c r="B402" s="2" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="C402" s="2" t="s">
         <v>31</v>
@@ -32480,7 +32480,7 @@
         <v>402</v>
       </c>
       <c r="B403" s="2" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="C403" s="2" t="s">
         <v>164</v>
@@ -32554,7 +32554,7 @@
         <v>403</v>
       </c>
       <c r="B404" s="2" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="C404" s="2" t="s">
         <v>31</v>
@@ -32628,7 +32628,7 @@
         <v>404</v>
       </c>
       <c r="B405" s="2" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="C405" s="2" t="s">
         <v>102</v>
@@ -32702,7 +32702,7 @@
         <v>405</v>
       </c>
       <c r="B406" s="2" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="C406" s="2" t="s">
         <v>111</v>
@@ -32776,7 +32776,7 @@
         <v>406</v>
       </c>
       <c r="B407" s="2" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="C407" s="2" t="s">
         <v>23</v>
@@ -32850,7 +32850,7 @@
         <v>407</v>
       </c>
       <c r="B408" s="2" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="C408" s="2" t="s">
         <v>23</v>
@@ -32924,7 +32924,7 @@
         <v>408</v>
       </c>
       <c r="B409" s="2" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="C409" s="2" t="s">
         <v>23</v>
@@ -32998,10 +32998,10 @@
         <v>409</v>
       </c>
       <c r="B410" s="2" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="C410" s="2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D410" s="2" t="s">
         <v>83</v>
@@ -33072,7 +33072,7 @@
         <v>410</v>
       </c>
       <c r="B411" s="2" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="C411" s="2" t="s">
         <v>23</v>
@@ -33146,7 +33146,7 @@
         <v>411</v>
       </c>
       <c r="B412" s="2" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="C412" s="2" t="s">
         <v>107</v>
@@ -33220,7 +33220,7 @@
         <v>412</v>
       </c>
       <c r="B413" s="2" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="C413" s="2" t="s">
         <v>43</v>
@@ -33294,7 +33294,7 @@
         <v>413</v>
       </c>
       <c r="B414" s="2" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="C414" s="2" t="s">
         <v>71</v>
@@ -33368,10 +33368,10 @@
         <v>414</v>
       </c>
       <c r="B415" s="2" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="C415" s="2" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="D415" s="2" t="s">
         <v>95</v>
@@ -33442,7 +33442,7 @@
         <v>415</v>
       </c>
       <c r="B416" s="2" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="C416" s="2" t="s">
         <v>257</v>
@@ -33516,7 +33516,7 @@
         <v>416</v>
       </c>
       <c r="B417" s="2" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="C417" s="2" t="s">
         <v>23</v>
@@ -33590,10 +33590,10 @@
         <v>417</v>
       </c>
       <c r="B418" s="2" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="C418" s="2" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="D418" s="2" t="s">
         <v>20</v>
@@ -33664,7 +33664,7 @@
         <v>418</v>
       </c>
       <c r="B419" s="2" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="C419" s="2" t="s">
         <v>23</v>
@@ -33738,7 +33738,7 @@
         <v>419</v>
       </c>
       <c r="B420" s="2" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="C420" s="2" t="s">
         <v>33</v>
@@ -33812,7 +33812,7 @@
         <v>420</v>
       </c>
       <c r="B421" s="2" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="C421" s="2" t="s">
         <v>111</v>
@@ -33886,7 +33886,7 @@
         <v>421</v>
       </c>
       <c r="B422" s="2" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="C422" s="2" t="s">
         <v>23</v>
@@ -33960,7 +33960,7 @@
         <v>422</v>
       </c>
       <c r="B423" s="2" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="C423" s="2" t="s">
         <v>23</v>
@@ -34034,7 +34034,7 @@
         <v>423</v>
       </c>
       <c r="B424" s="2" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="C424" s="2" t="s">
         <v>107</v>
@@ -34108,7 +34108,7 @@
         <v>424</v>
       </c>
       <c r="B425" s="2" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="C425" s="2" t="s">
         <v>23</v>
@@ -34182,7 +34182,7 @@
         <v>425</v>
       </c>
       <c r="B426" s="2" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="C426" s="2" t="s">
         <v>74</v>
@@ -34256,7 +34256,7 @@
         <v>426</v>
       </c>
       <c r="B427" s="2" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="C427" s="2" t="s">
         <v>89</v>
@@ -34330,10 +34330,10 @@
         <v>427</v>
       </c>
       <c r="B428" s="2" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="C428" s="2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D428" s="2" t="s">
         <v>83</v>
@@ -34404,7 +34404,7 @@
         <v>428</v>
       </c>
       <c r="B429" s="2" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="C429" s="2" t="s">
         <v>62</v>
@@ -34478,7 +34478,7 @@
         <v>429</v>
       </c>
       <c r="B430" s="2" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="C430" s="2" t="s">
         <v>31</v>
@@ -34552,7 +34552,7 @@
         <v>430</v>
       </c>
       <c r="B431" s="2" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="C431" s="2" t="s">
         <v>257</v>
@@ -34626,7 +34626,7 @@
         <v>431</v>
       </c>
       <c r="B432" s="2" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="C432" s="2" t="s">
         <v>23</v>
@@ -34700,7 +34700,7 @@
         <v>432</v>
       </c>
       <c r="B433" s="2" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="C433" s="2" t="s">
         <v>23</v>
@@ -34774,7 +34774,7 @@
         <v>433</v>
       </c>
       <c r="B434" s="2" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="C434" s="2" t="s">
         <v>23</v>
@@ -34848,7 +34848,7 @@
         <v>434</v>
       </c>
       <c r="B435" s="2" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="C435" s="2" t="s">
         <v>23</v>
@@ -34922,7 +34922,7 @@
         <v>435</v>
       </c>
       <c r="B436" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C436" s="2" t="s">
         <v>264</v>
@@ -34996,7 +34996,7 @@
         <v>436</v>
       </c>
       <c r="B437" s="2" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="C437" s="2" t="s">
         <v>59</v>
@@ -35070,7 +35070,7 @@
         <v>437</v>
       </c>
       <c r="B438" s="2" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="C438" s="2" t="s">
         <v>102</v>
@@ -35144,7 +35144,7 @@
         <v>438</v>
       </c>
       <c r="B439" s="2" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="C439" s="2" t="s">
         <v>107</v>
@@ -35218,7 +35218,7 @@
         <v>439</v>
       </c>
       <c r="B440" s="2" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="C440" s="2" t="s">
         <v>23</v>
@@ -35292,7 +35292,7 @@
         <v>440</v>
       </c>
       <c r="B441" s="2" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="C441" s="2" t="s">
         <v>164</v>
@@ -35366,7 +35366,7 @@
         <v>441</v>
       </c>
       <c r="B442" s="2" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="C442" s="2" t="s">
         <v>264</v>
@@ -35440,7 +35440,7 @@
         <v>442</v>
       </c>
       <c r="B443" s="2" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="C443" s="2" t="s">
         <v>31</v>
@@ -35514,7 +35514,7 @@
         <v>443</v>
       </c>
       <c r="B444" s="2" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="C444" s="2" t="s">
         <v>23</v>
@@ -35588,7 +35588,7 @@
         <v>444</v>
       </c>
       <c r="B445" s="2" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="C445" s="2" t="s">
         <v>31</v>
@@ -35662,7 +35662,7 @@
         <v>445</v>
       </c>
       <c r="B446" s="2" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="C446" s="2" t="s">
         <v>23</v>
@@ -35736,7 +35736,7 @@
         <v>446</v>
       </c>
       <c r="B447" s="2" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="C447" s="2" t="s">
         <v>23</v>
@@ -35810,7 +35810,7 @@
         <v>447</v>
       </c>
       <c r="B448" s="2" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="C448" s="2" t="s">
         <v>23</v>
@@ -35884,7 +35884,7 @@
         <v>448</v>
       </c>
       <c r="B449" s="2" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="C449" s="2" t="s">
         <v>23</v>
@@ -35958,7 +35958,7 @@
         <v>449</v>
       </c>
       <c r="B450" s="2" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="C450" s="2" t="s">
         <v>23</v>
@@ -36032,10 +36032,10 @@
         <v>450</v>
       </c>
       <c r="B451" s="2" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="C451" s="2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D451" s="2" t="s">
         <v>47</v>
@@ -36106,7 +36106,7 @@
         <v>451</v>
       </c>
       <c r="B452" s="2" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="C452" s="2" t="s">
         <v>23</v>
@@ -36180,7 +36180,7 @@
         <v>452</v>
       </c>
       <c r="B453" s="2" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="C453" s="2" t="s">
         <v>23</v>
@@ -36254,7 +36254,7 @@
         <v>453</v>
       </c>
       <c r="B454" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="C454" s="2" t="s">
         <v>23</v>
@@ -36328,7 +36328,7 @@
         <v>454</v>
       </c>
       <c r="B455" s="2" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="C455" s="2" t="s">
         <v>23</v>
@@ -36402,7 +36402,7 @@
         <v>455</v>
       </c>
       <c r="B456" s="2" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="C456" s="2" t="s">
         <v>74</v>
@@ -36476,7 +36476,7 @@
         <v>456</v>
       </c>
       <c r="B457" s="2" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="C457" s="2" t="s">
         <v>23</v>
@@ -36550,7 +36550,7 @@
         <v>457</v>
       </c>
       <c r="B458" s="2" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="C458" s="2" t="s">
         <v>23</v>
@@ -36624,7 +36624,7 @@
         <v>458</v>
       </c>
       <c r="B459" s="2" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="C459" s="2" t="s">
         <v>23</v>
@@ -36698,7 +36698,7 @@
         <v>459</v>
       </c>
       <c r="B460" s="2" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="C460" s="2" t="s">
         <v>31</v>
@@ -36772,7 +36772,7 @@
         <v>460</v>
       </c>
       <c r="B461" s="2" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="C461" s="2" t="s">
         <v>23</v>
@@ -36846,7 +36846,7 @@
         <v>461</v>
       </c>
       <c r="B462" s="2" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="C462" s="2" t="s">
         <v>23</v>
@@ -36920,7 +36920,7 @@
         <v>462</v>
       </c>
       <c r="B463" s="2" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="C463" s="2" t="s">
         <v>74</v>
@@ -36994,7 +36994,7 @@
         <v>463</v>
       </c>
       <c r="B464" s="2" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="C464" s="2" t="s">
         <v>23</v>
@@ -37068,7 +37068,7 @@
         <v>464</v>
       </c>
       <c r="B465" s="2" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="C465" s="2" t="s">
         <v>23</v>
@@ -37142,7 +37142,7 @@
         <v>465</v>
       </c>
       <c r="B466" s="2" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C466" s="2" t="s">
         <v>23</v>
@@ -37216,7 +37216,7 @@
         <v>466</v>
       </c>
       <c r="B467" s="2" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="C467" s="2" t="s">
         <v>23</v>
@@ -37290,10 +37290,10 @@
         <v>467</v>
       </c>
       <c r="B468" s="2" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C468" s="2" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="D468" s="2" t="s">
         <v>75</v>
@@ -37364,7 +37364,7 @@
         <v>468</v>
       </c>
       <c r="B469" s="2" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C469" s="2" t="s">
         <v>31</v>
@@ -37438,7 +37438,7 @@
         <v>469</v>
       </c>
       <c r="B470" s="2" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="C470" s="2" t="s">
         <v>31</v>
@@ -37512,7 +37512,7 @@
         <v>470</v>
       </c>
       <c r="B471" s="2" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="C471" s="2" t="s">
         <v>130</v>
@@ -37586,7 +37586,7 @@
         <v>471</v>
       </c>
       <c r="B472" s="2" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="C472" s="2" t="s">
         <v>23</v>
@@ -37660,10 +37660,10 @@
         <v>472</v>
       </c>
       <c r="B473" s="2" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="C473" s="2" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="D473" s="2" t="s">
         <v>20</v>
@@ -37734,7 +37734,7 @@
         <v>473</v>
       </c>
       <c r="B474" s="2" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="C474" s="2" t="s">
         <v>23</v>
@@ -37808,7 +37808,7 @@
         <v>474</v>
       </c>
       <c r="B475" s="2" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="C475" s="2" t="s">
         <v>23</v>
@@ -37956,10 +37956,10 @@
         <v>476</v>
       </c>
       <c r="B477" s="2" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="C477" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D477" s="2" t="s">
         <v>50</v>
@@ -38030,7 +38030,7 @@
         <v>477</v>
       </c>
       <c r="B478" s="2" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="C478" s="2" t="s">
         <v>23</v>
@@ -38104,7 +38104,7 @@
         <v>478</v>
       </c>
       <c r="B479" s="2" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="C479" s="2" t="s">
         <v>23</v>
@@ -38178,7 +38178,7 @@
         <v>479</v>
       </c>
       <c r="B480" s="2" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="C480" s="2" t="s">
         <v>23</v>
@@ -38252,7 +38252,7 @@
         <v>480</v>
       </c>
       <c r="B481" s="2" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="C481" s="2" t="s">
         <v>184</v>
@@ -38326,7 +38326,7 @@
         <v>481</v>
       </c>
       <c r="B482" s="2" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="C482" s="2" t="s">
         <v>23</v>
@@ -38400,7 +38400,7 @@
         <v>482</v>
       </c>
       <c r="B483" s="2" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="C483" s="2" t="s">
         <v>23</v>
@@ -38474,7 +38474,7 @@
         <v>483</v>
       </c>
       <c r="B484" s="2" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="C484" s="2" t="s">
         <v>23</v>
@@ -38548,7 +38548,7 @@
         <v>484</v>
       </c>
       <c r="B485" s="2" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="C485" s="2" t="s">
         <v>46</v>
@@ -38622,7 +38622,7 @@
         <v>485</v>
       </c>
       <c r="B486" s="2" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="C486" s="2" t="s">
         <v>264</v>
@@ -38696,7 +38696,7 @@
         <v>486</v>
       </c>
       <c r="B487" s="2" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="C487" s="2" t="s">
         <v>23</v>
@@ -38770,7 +38770,7 @@
         <v>487</v>
       </c>
       <c r="B488" s="2" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="C488" s="2" t="s">
         <v>89</v>
@@ -38844,7 +38844,7 @@
         <v>488</v>
       </c>
       <c r="B489" s="2" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="C489" s="2" t="s">
         <v>200</v>
@@ -38992,7 +38992,7 @@
         <v>490</v>
       </c>
       <c r="B491" s="2" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="C491" s="2" t="s">
         <v>105</v>
@@ -39066,7 +39066,7 @@
         <v>491</v>
       </c>
       <c r="B492" s="2" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="C492" s="2" t="s">
         <v>23</v>
@@ -39140,7 +39140,7 @@
         <v>492</v>
       </c>
       <c r="B493" s="2" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="C493" s="2" t="s">
         <v>23</v>
@@ -39214,7 +39214,7 @@
         <v>493</v>
       </c>
       <c r="B494" s="2" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="C494" s="2" t="s">
         <v>23</v>
@@ -39288,7 +39288,7 @@
         <v>494</v>
       </c>
       <c r="B495" s="2" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="C495" s="2" t="s">
         <v>23</v>
@@ -39362,7 +39362,7 @@
         <v>495</v>
       </c>
       <c r="B496" s="2" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="C496" s="2" t="s">
         <v>23</v>
@@ -39436,7 +39436,7 @@
         <v>496</v>
       </c>
       <c r="B497" s="2" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="C497" s="2" t="s">
         <v>33</v>
@@ -39510,7 +39510,7 @@
         <v>497</v>
       </c>
       <c r="B498" s="2" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="C498" s="2" t="s">
         <v>23</v>
@@ -39584,7 +39584,7 @@
         <v>498</v>
       </c>
       <c r="B499" s="2" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="C499" s="2" t="s">
         <v>23</v>
@@ -39658,10 +39658,10 @@
         <v>499</v>
       </c>
       <c r="B500" s="2" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="C500" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D500" s="2" t="s">
         <v>20</v>
